--- a/data/consumption_data.xlsx
+++ b/data/consumption_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11997" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12017" uniqueCount="1778">
   <si>
     <t>Sun &amp; Chen-2014-Aquaculture</t>
   </si>
@@ -4459,405 +4459,204 @@
     <t>400.158044551141</t>
   </si>
   <si>
-    <t>0.00565471514939583</t>
-  </si>
-  <si>
     <t>0.0356924673375654</t>
   </si>
   <si>
-    <t>0.00886242632758201</t>
-  </si>
-  <si>
     <t>0.0359091501890868</t>
   </si>
   <si>
-    <t>0.0152778486839543</t>
-  </si>
-  <si>
     <t>0.0363425158921296</t>
   </si>
   <si>
-    <t>0.0241777482729637</t>
-  </si>
-  <si>
     <t>0.101780737051595</t>
   </si>
   <si>
-    <t>0.0317773256904422</t>
-  </si>
-  <si>
     <t>0.0868567056530575</t>
   </si>
   <si>
-    <t>0.0374320408398382</t>
-  </si>
-  <si>
     <t>0.121200937619201</t>
   </si>
   <si>
-    <t>0.0174138245853166</t>
-  </si>
-  <si>
     <t>0.144548514870632</t>
   </si>
   <si>
-    <t>0.0230048351902858</t>
-  </si>
-  <si>
     <t>0.126401326055715</t>
   </si>
   <si>
-    <t>0.0226938071204385</t>
-  </si>
-  <si>
     <t>0.200479775919596</t>
   </si>
   <si>
-    <t>0.0243426306232443</t>
-  </si>
-  <si>
     <t>0.237640884955517</t>
   </si>
   <si>
-    <t>0.0295963818753669</t>
-  </si>
-  <si>
     <t>0.27195803156522</t>
   </si>
   <si>
-    <t>0.0356558082481788</t>
-  </si>
-  <si>
     <t>0.309417079521983</t>
   </si>
   <si>
-    <t>0.0384250822676643</t>
-  </si>
-  <si>
     <t>0.278729370675264</t>
   </si>
   <si>
-    <t>0.0408046343683048</t>
-  </si>
-  <si>
     <t>0.257277768374645</t>
   </si>
   <si>
-    <t>0.035959341665741</t>
-  </si>
-  <si>
     <t>0.229163168389742</t>
   </si>
   <si>
-    <t>0.035509662528612</t>
-  </si>
-  <si>
     <t>0.188995584788961</t>
   </si>
   <si>
-    <t>0.0354721892671846</t>
-  </si>
-  <si>
     <t>0.158118278447161</t>
   </si>
   <si>
-    <t>0.0443383629209094</t>
-  </si>
-  <si>
     <t>0.195766923899005</t>
   </si>
   <si>
-    <t>0.0516119229639694</t>
-  </si>
-  <si>
     <t>0.242570419827629</t>
   </si>
   <si>
-    <t>0.0560112838555471</t>
-  </si>
-  <si>
     <t>0.233605166845931</t>
   </si>
   <si>
-    <t>0.0310241131357511</t>
-  </si>
-  <si>
     <t>0.126943033184518</t>
   </si>
   <si>
-    <t>0.029899915292929</t>
-  </si>
-  <si>
     <t>0.191704120432978</t>
   </si>
   <si>
-    <t>0.0315562334480205</t>
-  </si>
-  <si>
     <t>0.23504069073726</t>
   </si>
   <si>
-    <t>0.0352061291110499</t>
-  </si>
-  <si>
     <t>0.269249495921202</t>
   </si>
   <si>
-    <t>0.0472425406815336</t>
-  </si>
-  <si>
     <t>0.276237517882767</t>
   </si>
   <si>
-    <t>0.0444957506189045</t>
-  </si>
-  <si>
     <t>0.325451610534567</t>
   </si>
   <si>
-    <t>0.043750032716499</t>
-  </si>
-  <si>
     <t>0.371713399334387</t>
   </si>
   <si>
-    <t>0.0353485275044742</t>
-  </si>
-  <si>
     <t>0.386583260020043</t>
   </si>
   <si>
-    <t>0.0478458601905148</t>
-  </si>
-  <si>
     <t>0.443002057484929</t>
   </si>
   <si>
-    <t>0.0498094590893112</t>
-  </si>
-  <si>
     <t>0.40917244729115</t>
   </si>
   <si>
-    <t>0.053860318649614</t>
-  </si>
-  <si>
     <t>0.443408337831533</t>
   </si>
   <si>
-    <t>0.0590691019880236</t>
-  </si>
-  <si>
     <t>0.440672716831074</t>
   </si>
   <si>
-    <t>0.0647125751589913</t>
-  </si>
-  <si>
     <t>0.465753756894678</t>
   </si>
   <si>
-    <t>0.0646376286361366</t>
-  </si>
-  <si>
     <t>0.403999144211077</t>
   </si>
   <si>
-    <t>0.0566071087122431</t>
-  </si>
-  <si>
     <t>0.394194245179732</t>
   </si>
   <si>
-    <t>0.0553442598021393</t>
-  </si>
-  <si>
     <t>0.344709298963532</t>
   </si>
   <si>
-    <t>0.0581135338216247</t>
-  </si>
-  <si>
     <t>0.314021590116813</t>
   </si>
   <si>
-    <t>0.0633073278554635</t>
-  </si>
-  <si>
     <t>0.298935046579635</t>
   </si>
   <si>
-    <t>0.0520690967533839</t>
-  </si>
-  <si>
     <t>0.28891346469677</t>
   </si>
   <si>
-    <t>0.049723270588028</t>
-  </si>
-  <si>
     <t>0.33815464270501</t>
   </si>
   <si>
-    <t>0.0521740218853804</t>
-  </si>
-  <si>
     <t>0.375369922453809</t>
   </si>
   <si>
-    <t>0.0507350486465682</t>
-  </si>
-  <si>
     <t>0.511121728931972</t>
   </si>
   <si>
-    <t>0.060770388056828</t>
-  </si>
-  <si>
     <t>0.521062054745517</t>
   </si>
   <si>
-    <t>0.0692243558348514</t>
-  </si>
-  <si>
     <t>0.549420422938381</t>
   </si>
   <si>
-    <t>0.0282548391162657</t>
-  </si>
-  <si>
     <t>0.157630742031237</t>
   </si>
   <si>
-    <t>0.0608753131888248</t>
-  </si>
-  <si>
     <t>0.607518512502557</t>
   </si>
   <si>
-    <t>0.0636820604697377</t>
-  </si>
-  <si>
     <t>0.607708109997638</t>
   </si>
   <si>
-    <t>0.0744930963915451</t>
-  </si>
-  <si>
     <t>0.596088492084803</t>
   </si>
   <si>
-    <t>0.0738485562949936</t>
-  </si>
-  <si>
     <t>0.725719008007486</t>
   </si>
   <si>
-    <t>0.0624641794733469</t>
-  </si>
-  <si>
     <t>0.925636023892425</t>
   </si>
   <si>
-    <t>0.0708394534023726</t>
-  </si>
-  <si>
     <t>0.889152048767509</t>
   </si>
   <si>
-    <t>0.0780005936611505</t>
-  </si>
-  <si>
     <t>0.84332362567073</t>
   </si>
   <si>
-    <t>0.0799866765168032</t>
-  </si>
-  <si>
     <t>0.828020399282032</t>
   </si>
   <si>
-    <t>0.0843897847345237</t>
-  </si>
-  <si>
     <t>0.822142876934513</t>
   </si>
   <si>
-    <t>0.0928699837955462</t>
-  </si>
-  <si>
     <t>0.872115359566637</t>
   </si>
   <si>
-    <t>0.0937131321776627</t>
-  </si>
-  <si>
     <t>0.906134567255497</t>
   </si>
   <si>
-    <t>0.0973105652746941</t>
-  </si>
-  <si>
     <t>0.897115143560918</t>
   </si>
   <si>
-    <t>0.0965798366768594</t>
-  </si>
-  <si>
     <t>0.955727854897459</t>
   </si>
   <si>
-    <t>0.0966098152860013</t>
-  </si>
-  <si>
     <t>0.980429699970902</t>
   </si>
   <si>
-    <t>0.106060571817994</t>
-  </si>
-  <si>
     <t>0.839044139353181</t>
   </si>
   <si>
-    <t>0.0797805735789523</t>
-  </si>
-  <si>
     <t>0.988555306902953</t>
   </si>
   <si>
-    <t>0.0902431081694847</t>
-  </si>
-  <si>
     <t>1.35049692501302</t>
   </si>
   <si>
-    <t>0.11844173739361</t>
-  </si>
-  <si>
     <t>1.46046347216014</t>
   </si>
   <si>
-    <t>0.122788635719189</t>
-  </si>
-  <si>
     <t>1.40826999029992</t>
   </si>
   <si>
-    <t>0.134349136869544</t>
-  </si>
-  <si>
     <t>1.35347631422144</t>
   </si>
   <si>
-    <t>0.162855046837374</t>
-  </si>
-  <si>
     <t>1.3862766808705</t>
   </si>
   <si>
-    <t>0.162877530794231</t>
-  </si>
-  <si>
     <t>1.40480306467558</t>
   </si>
   <si>
@@ -5344,7 +5143,211 @@
     <t>Converted from length to mass using fishbase parameters; No temp in fishbase. used midpoint of spawning temperature https://www.cabi.org/isc/datasheet/77112</t>
   </si>
   <si>
-    <t>No temp in fishbase. eyeballed from Middaugh &amp; Hemmer (1992) Copeia</t>
+    <t>energy content in feed is 17.6 kJ/g</t>
+  </si>
+  <si>
+    <t>0.00282735757469792</t>
+  </si>
+  <si>
+    <t>0.004431213163791</t>
+  </si>
+  <si>
+    <t>0.00763892434197716</t>
+  </si>
+  <si>
+    <t>0.0120888741364818</t>
+  </si>
+  <si>
+    <t>0.0158886628452211</t>
+  </si>
+  <si>
+    <t>0.0187160204199191</t>
+  </si>
+  <si>
+    <t>0.0087069122926583</t>
+  </si>
+  <si>
+    <t>0.0115024175951429</t>
+  </si>
+  <si>
+    <t>0.0113469035602192</t>
+  </si>
+  <si>
+    <t>0.0121713153116222</t>
+  </si>
+  <si>
+    <t>0.0147981909376835</t>
+  </si>
+  <si>
+    <t>0.0178279041240894</t>
+  </si>
+  <si>
+    <t>0.0192125411338321</t>
+  </si>
+  <si>
+    <t>0.0204023171841524</t>
+  </si>
+  <si>
+    <t>0.0179796708328705</t>
+  </si>
+  <si>
+    <t>0.017754831264306</t>
+  </si>
+  <si>
+    <t>0.0177360946335923</t>
+  </si>
+  <si>
+    <t>0.0221691814604547</t>
+  </si>
+  <si>
+    <t>0.0258059614819847</t>
+  </si>
+  <si>
+    <t>0.0280056419277736</t>
+  </si>
+  <si>
+    <t>0.0155120565678756</t>
+  </si>
+  <si>
+    <t>0.0149499576464645</t>
+  </si>
+  <si>
+    <t>0.0157781167240102</t>
+  </si>
+  <si>
+    <t>0.017603064555525</t>
+  </si>
+  <si>
+    <t>0.0236212703407668</t>
+  </si>
+  <si>
+    <t>0.0222478753094523</t>
+  </si>
+  <si>
+    <t>0.0218750163582495</t>
+  </si>
+  <si>
+    <t>0.0176742637522371</t>
+  </si>
+  <si>
+    <t>0.0239229300952574</t>
+  </si>
+  <si>
+    <t>0.0249047295446556</t>
+  </si>
+  <si>
+    <t>0.026930159324807</t>
+  </si>
+  <si>
+    <t>0.0295345509940118</t>
+  </si>
+  <si>
+    <t>0.0323562875794957</t>
+  </si>
+  <si>
+    <t>0.0323188143180683</t>
+  </si>
+  <si>
+    <t>0.0283035543561215</t>
+  </si>
+  <si>
+    <t>0.0276721299010696</t>
+  </si>
+  <si>
+    <t>0.0290567669108124</t>
+  </si>
+  <si>
+    <t>0.0316536639277317</t>
+  </si>
+  <si>
+    <t>0.0260345483766919</t>
+  </si>
+  <si>
+    <t>0.024861635294014</t>
+  </si>
+  <si>
+    <t>0.0260870109426902</t>
+  </si>
+  <si>
+    <t>0.0253675243232841</t>
+  </si>
+  <si>
+    <t>0.030385194028414</t>
+  </si>
+  <si>
+    <t>0.0346121779174257</t>
+  </si>
+  <si>
+    <t>0.0141274195581328</t>
+  </si>
+  <si>
+    <t>0.0304376565944124</t>
+  </si>
+  <si>
+    <t>0.0318410302348689</t>
+  </si>
+  <si>
+    <t>0.0372465481957725</t>
+  </si>
+  <si>
+    <t>0.0369242781474968</t>
+  </si>
+  <si>
+    <t>0.0312320897366735</t>
+  </si>
+  <si>
+    <t>0.0354197267011863</t>
+  </si>
+  <si>
+    <t>0.0390002968305752</t>
+  </si>
+  <si>
+    <t>0.0399933382584016</t>
+  </si>
+  <si>
+    <t>0.0421948923672618</t>
+  </si>
+  <si>
+    <t>0.0464349918977731</t>
+  </si>
+  <si>
+    <t>0.0468565660888314</t>
+  </si>
+  <si>
+    <t>0.0486552826373471</t>
+  </si>
+  <si>
+    <t>0.0482899183384297</t>
+  </si>
+  <si>
+    <t>0.0483049076430007</t>
+  </si>
+  <si>
+    <t>0.0530302859089969</t>
+  </si>
+  <si>
+    <t>0.0398902867894762</t>
+  </si>
+  <si>
+    <t>0.0451215540847424</t>
+  </si>
+  <si>
+    <t>0.0592208686968048</t>
+  </si>
+  <si>
+    <t>0.0613943178595945</t>
+  </si>
+  <si>
+    <t>0.0671745684347722</t>
+  </si>
+  <si>
+    <t>0.0814275234186871</t>
+  </si>
+  <si>
+    <t>0.0814387653971153</t>
+  </si>
+  <si>
+    <t>No temp in fishbase. eyeballed from Middaugh &amp; Hemmer (1992) Copeia. Energy (kJ/g) =  21.8789 (dry weight!). Assuming 2.5 times higher wet weight than dry weight</t>
   </si>
 </sst>
 </file>
@@ -5745,9 +5748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X808"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A730" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I760" sqref="I760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5829,7 +5832,7 @@
         <v>17</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>1740</v>
+        <v>1673</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>1</v>
@@ -10465,7 +10468,7 @@
         <v>304</v>
       </c>
       <c r="T78" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U78" s="6" t="s">
         <v>140</v>
@@ -10528,7 +10531,7 @@
         <v>304</v>
       </c>
       <c r="T79" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U79" s="6" t="s">
         <v>140</v>
@@ -10591,7 +10594,7 @@
         <v>304</v>
       </c>
       <c r="T80" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U80" s="6" t="s">
         <v>140</v>
@@ -10654,7 +10657,7 @@
         <v>304</v>
       </c>
       <c r="T81" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U81" s="6" t="s">
         <v>140</v>
@@ -10717,7 +10720,7 @@
         <v>304</v>
       </c>
       <c r="T82" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U82" s="6" t="s">
         <v>140</v>
@@ -10780,7 +10783,7 @@
         <v>304</v>
       </c>
       <c r="T83" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U83" s="6" t="s">
         <v>140</v>
@@ -10843,7 +10846,7 @@
         <v>304</v>
       </c>
       <c r="T84" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U84" s="6" t="s">
         <v>140</v>
@@ -10906,7 +10909,7 @@
         <v>304</v>
       </c>
       <c r="T85" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U85" s="6" t="s">
         <v>140</v>
@@ -10969,7 +10972,7 @@
         <v>304</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U86" s="6" t="s">
         <v>140</v>
@@ -11032,7 +11035,7 @@
         <v>304</v>
       </c>
       <c r="T87" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U87" s="6" t="s">
         <v>140</v>
@@ -11095,7 +11098,7 @@
         <v>304</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U88" s="6" t="s">
         <v>140</v>
@@ -11158,7 +11161,7 @@
         <v>304</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U89" s="6" t="s">
         <v>140</v>
@@ -11221,7 +11224,7 @@
         <v>304</v>
       </c>
       <c r="T90" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U90" s="6" t="s">
         <v>140</v>
@@ -11284,7 +11287,7 @@
         <v>304</v>
       </c>
       <c r="T91" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U91" s="6" t="s">
         <v>140</v>
@@ -11347,7 +11350,7 @@
         <v>304</v>
       </c>
       <c r="T92" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U92" s="6" t="s">
         <v>140</v>
@@ -11410,7 +11413,7 @@
         <v>304</v>
       </c>
       <c r="T93" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U93" s="6" t="s">
         <v>140</v>
@@ -11473,7 +11476,7 @@
         <v>304</v>
       </c>
       <c r="T94" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U94" s="6" t="s">
         <v>140</v>
@@ -11536,7 +11539,7 @@
         <v>304</v>
       </c>
       <c r="T95" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U95" s="6" t="s">
         <v>140</v>
@@ -11599,7 +11602,7 @@
         <v>304</v>
       </c>
       <c r="T96" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U96" s="6" t="s">
         <v>140</v>
@@ -11662,7 +11665,7 @@
         <v>304</v>
       </c>
       <c r="T97" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U97" s="6" t="s">
         <v>140</v>
@@ -11725,7 +11728,7 @@
         <v>304</v>
       </c>
       <c r="T98" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U98" s="6" t="s">
         <v>140</v>
@@ -11788,7 +11791,7 @@
         <v>304</v>
       </c>
       <c r="T99" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U99" s="6" t="s">
         <v>140</v>
@@ -11851,7 +11854,7 @@
         <v>304</v>
       </c>
       <c r="T100" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U100" s="6" t="s">
         <v>140</v>
@@ -11914,7 +11917,7 @@
         <v>304</v>
       </c>
       <c r="T101" s="4" t="s">
-        <v>1735</v>
+        <v>1668</v>
       </c>
       <c r="U101" s="6" t="s">
         <v>140</v>
@@ -13537,7 +13540,7 @@
         <v>172</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U128" s="6" t="s">
         <v>210</v>
@@ -13600,7 +13603,7 @@
         <v>172</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U129" s="6" t="s">
         <v>210</v>
@@ -13663,7 +13666,7 @@
         <v>172</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U130" s="6" t="s">
         <v>210</v>
@@ -13726,7 +13729,7 @@
         <v>172</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U131" s="6" t="s">
         <v>210</v>
@@ -13789,7 +13792,7 @@
         <v>172</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U132" s="6" t="s">
         <v>210</v>
@@ -13852,7 +13855,7 @@
         <v>172</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U133" s="6" t="s">
         <v>210</v>
@@ -13915,7 +13918,7 @@
         <v>172</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U134" s="6" t="s">
         <v>210</v>
@@ -13978,7 +13981,7 @@
         <v>172</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U135" s="6" t="s">
         <v>210</v>
@@ -14041,7 +14044,7 @@
         <v>172</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U136" s="6" t="s">
         <v>210</v>
@@ -14104,7 +14107,7 @@
         <v>172</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U137" s="6" t="s">
         <v>210</v>
@@ -14167,7 +14170,7 @@
         <v>172</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U138" s="6" t="s">
         <v>210</v>
@@ -14230,7 +14233,7 @@
         <v>172</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U139" s="6" t="s">
         <v>210</v>
@@ -14293,7 +14296,7 @@
         <v>172</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U140" s="6" t="s">
         <v>210</v>
@@ -14356,7 +14359,7 @@
         <v>172</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U141" s="6" t="s">
         <v>210</v>
@@ -14419,7 +14422,7 @@
         <v>172</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U142" s="6" t="s">
         <v>210</v>
@@ -14482,7 +14485,7 @@
         <v>172</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U143" s="6" t="s">
         <v>210</v>
@@ -14545,7 +14548,7 @@
         <v>172</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U144" s="6" t="s">
         <v>210</v>
@@ -14608,7 +14611,7 @@
         <v>172</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U145" s="6" t="s">
         <v>210</v>
@@ -14671,7 +14674,7 @@
         <v>172</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U146" s="6" t="s">
         <v>210</v>
@@ -14734,7 +14737,7 @@
         <v>172</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U147" s="6" t="s">
         <v>210</v>
@@ -14797,7 +14800,7 @@
         <v>172</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U148" s="6" t="s">
         <v>210</v>
@@ -14860,7 +14863,7 @@
         <v>172</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U149" s="6" t="s">
         <v>210</v>
@@ -14923,7 +14926,7 @@
         <v>172</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U150" s="6" t="s">
         <v>210</v>
@@ -14986,7 +14989,7 @@
         <v>172</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U151" s="6" t="s">
         <v>210</v>
@@ -15049,7 +15052,7 @@
         <v>172</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U152" s="6" t="s">
         <v>210</v>
@@ -15112,7 +15115,7 @@
         <v>172</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U153" s="6" t="s">
         <v>210</v>
@@ -15175,7 +15178,7 @@
         <v>172</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>1741</v>
+        <v>1674</v>
       </c>
       <c r="U154" s="6" t="s">
         <v>210</v>
@@ -15718,7 +15721,7 @@
         <v>9</v>
       </c>
       <c r="T163" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U163" s="6" t="s">
         <v>528</v>
@@ -15781,7 +15784,7 @@
         <v>9</v>
       </c>
       <c r="T164" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U164" s="6" t="s">
         <v>528</v>
@@ -15844,7 +15847,7 @@
         <v>9</v>
       </c>
       <c r="T165" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U165" s="6" t="s">
         <v>528</v>
@@ -15907,7 +15910,7 @@
         <v>9</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U166" s="6" t="s">
         <v>528</v>
@@ -15970,7 +15973,7 @@
         <v>9</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U167" s="6" t="s">
         <v>528</v>
@@ -16033,7 +16036,7 @@
         <v>9</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U168" s="6" t="s">
         <v>528</v>
@@ -16096,7 +16099,7 @@
         <v>9</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U169" s="6" t="s">
         <v>528</v>
@@ -16159,7 +16162,7 @@
         <v>9</v>
       </c>
       <c r="T170" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U170" s="6" t="s">
         <v>528</v>
@@ -16222,7 +16225,7 @@
         <v>9</v>
       </c>
       <c r="T171" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U171" s="6" t="s">
         <v>528</v>
@@ -16285,7 +16288,7 @@
         <v>9</v>
       </c>
       <c r="T172" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U172" s="6" t="s">
         <v>528</v>
@@ -16348,7 +16351,7 @@
         <v>9</v>
       </c>
       <c r="T173" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U173" s="6" t="s">
         <v>528</v>
@@ -16411,7 +16414,7 @@
         <v>9</v>
       </c>
       <c r="T174" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U174" s="6" t="s">
         <v>528</v>
@@ -16474,7 +16477,7 @@
         <v>9</v>
       </c>
       <c r="T175" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U175" s="6" t="s">
         <v>528</v>
@@ -16537,7 +16540,7 @@
         <v>9</v>
       </c>
       <c r="T176" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U176" s="6" t="s">
         <v>528</v>
@@ -16600,7 +16603,7 @@
         <v>9</v>
       </c>
       <c r="T177" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U177" s="6" t="s">
         <v>528</v>
@@ -16663,7 +16666,7 @@
         <v>9</v>
       </c>
       <c r="T178" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U178" s="6" t="s">
         <v>528</v>
@@ -16726,7 +16729,7 @@
         <v>9</v>
       </c>
       <c r="T179" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U179" s="6" t="s">
         <v>528</v>
@@ -16789,7 +16792,7 @@
         <v>9</v>
       </c>
       <c r="T180" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U180" s="6" t="s">
         <v>528</v>
@@ -16852,7 +16855,7 @@
         <v>9</v>
       </c>
       <c r="T181" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U181" s="6" t="s">
         <v>528</v>
@@ -16915,7 +16918,7 @@
         <v>9</v>
       </c>
       <c r="T182" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U182" s="6" t="s">
         <v>528</v>
@@ -16978,7 +16981,7 @@
         <v>9</v>
       </c>
       <c r="T183" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U183" s="6" t="s">
         <v>528</v>
@@ -17041,7 +17044,7 @@
         <v>9</v>
       </c>
       <c r="T184" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U184" s="6" t="s">
         <v>528</v>
@@ -17104,7 +17107,7 @@
         <v>9</v>
       </c>
       <c r="T185" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U185" s="6" t="s">
         <v>528</v>
@@ -17167,7 +17170,7 @@
         <v>9</v>
       </c>
       <c r="T186" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U186" s="6" t="s">
         <v>528</v>
@@ -17230,7 +17233,7 @@
         <v>9</v>
       </c>
       <c r="T187" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U187" s="6" t="s">
         <v>528</v>
@@ -17293,7 +17296,7 @@
         <v>9</v>
       </c>
       <c r="T188" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U188" s="6" t="s">
         <v>528</v>
@@ -17356,7 +17359,7 @@
         <v>9</v>
       </c>
       <c r="T189" s="1" t="s">
-        <v>1742</v>
+        <v>1675</v>
       </c>
       <c r="U189" s="6" t="s">
         <v>528</v>
@@ -20119,7 +20122,7 @@
         <v>172</v>
       </c>
       <c r="T235" s="7" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="U235" s="6" t="s">
         <v>272</v>
@@ -20182,7 +20185,7 @@
         <v>172</v>
       </c>
       <c r="T236" s="7" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="U236" s="6" t="s">
         <v>272</v>
@@ -20245,7 +20248,7 @@
         <v>172</v>
       </c>
       <c r="T237" s="7" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="U237" s="6" t="s">
         <v>272</v>
@@ -20308,7 +20311,7 @@
         <v>172</v>
       </c>
       <c r="T238" s="7" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="U238" s="6" t="s">
         <v>272</v>
@@ -20371,7 +20374,7 @@
         <v>172</v>
       </c>
       <c r="T239" s="7" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="U239" s="6" t="s">
         <v>272</v>
@@ -20434,7 +20437,7 @@
         <v>172</v>
       </c>
       <c r="T240" s="7" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="U240" s="6" t="s">
         <v>272</v>
@@ -20497,7 +20500,7 @@
         <v>172</v>
       </c>
       <c r="T241" s="7" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="U241" s="6" t="s">
         <v>272</v>
@@ -20560,7 +20563,7 @@
         <v>172</v>
       </c>
       <c r="T242" s="7" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="U242" s="6" t="s">
         <v>272</v>
@@ -20623,7 +20626,7 @@
         <v>172</v>
       </c>
       <c r="T243" s="7" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="U243" s="6" t="s">
         <v>272</v>
@@ -20686,7 +20689,7 @@
         <v>172</v>
       </c>
       <c r="T244" s="7" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="U244" s="6" t="s">
         <v>272</v>
@@ -20749,7 +20752,7 @@
         <v>172</v>
       </c>
       <c r="T245" s="7" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="U245" s="6" t="s">
         <v>272</v>
@@ -20812,7 +20815,7 @@
         <v>172</v>
       </c>
       <c r="T246" s="7" t="s">
-        <v>1736</v>
+        <v>1669</v>
       </c>
       <c r="U246" s="6" t="s">
         <v>272</v>
@@ -20875,7 +20878,7 @@
         <v>286</v>
       </c>
       <c r="T247" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U247" s="6" t="s">
         <v>661</v>
@@ -20938,7 +20941,7 @@
         <v>286</v>
       </c>
       <c r="T248" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U248" s="6" t="s">
         <v>661</v>
@@ -21001,7 +21004,7 @@
         <v>286</v>
       </c>
       <c r="T249" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U249" s="6" t="s">
         <v>661</v>
@@ -21064,7 +21067,7 @@
         <v>286</v>
       </c>
       <c r="T250" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U250" s="6" t="s">
         <v>661</v>
@@ -21127,7 +21130,7 @@
         <v>286</v>
       </c>
       <c r="T251" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U251" s="6" t="s">
         <v>661</v>
@@ -21190,7 +21193,7 @@
         <v>286</v>
       </c>
       <c r="T252" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U252" s="6" t="s">
         <v>661</v>
@@ -21253,7 +21256,7 @@
         <v>286</v>
       </c>
       <c r="T253" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U253" s="6" t="s">
         <v>661</v>
@@ -21316,7 +21319,7 @@
         <v>286</v>
       </c>
       <c r="T254" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U254" s="6" t="s">
         <v>661</v>
@@ -21379,7 +21382,7 @@
         <v>286</v>
       </c>
       <c r="T255" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U255" s="6" t="s">
         <v>661</v>
@@ -21442,7 +21445,7 @@
         <v>286</v>
       </c>
       <c r="T256" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U256" s="6" t="s">
         <v>661</v>
@@ -21505,7 +21508,7 @@
         <v>286</v>
       </c>
       <c r="T257" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U257" s="6" t="s">
         <v>661</v>
@@ -21568,7 +21571,7 @@
         <v>286</v>
       </c>
       <c r="T258" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U258" s="6" t="s">
         <v>661</v>
@@ -21631,7 +21634,7 @@
         <v>286</v>
       </c>
       <c r="T259" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U259" s="6" t="s">
         <v>661</v>
@@ -21694,7 +21697,7 @@
         <v>286</v>
       </c>
       <c r="T260" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U260" s="6" t="s">
         <v>661</v>
@@ -21757,7 +21760,7 @@
         <v>286</v>
       </c>
       <c r="T261" s="7" t="s">
-        <v>1743</v>
+        <v>1676</v>
       </c>
       <c r="U261" s="6" t="s">
         <v>661</v>
@@ -22828,7 +22831,7 @@
         <v>270</v>
       </c>
       <c r="T278" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U278" s="6" t="s">
         <v>725</v>
@@ -22891,7 +22894,7 @@
         <v>270</v>
       </c>
       <c r="T279" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U279" s="6" t="s">
         <v>725</v>
@@ -22954,7 +22957,7 @@
         <v>270</v>
       </c>
       <c r="T280" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U280" s="6" t="s">
         <v>725</v>
@@ -23017,7 +23020,7 @@
         <v>270</v>
       </c>
       <c r="T281" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U281" s="6" t="s">
         <v>725</v>
@@ -23080,7 +23083,7 @@
         <v>270</v>
       </c>
       <c r="T282" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U282" s="6" t="s">
         <v>725</v>
@@ -23143,7 +23146,7 @@
         <v>270</v>
       </c>
       <c r="T283" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U283" s="6" t="s">
         <v>725</v>
@@ -23206,7 +23209,7 @@
         <v>270</v>
       </c>
       <c r="T284" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U284" s="6" t="s">
         <v>725</v>
@@ -23269,7 +23272,7 @@
         <v>270</v>
       </c>
       <c r="T285" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U285" s="6" t="s">
         <v>725</v>
@@ -23332,7 +23335,7 @@
         <v>270</v>
       </c>
       <c r="T286" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U286" s="6" t="s">
         <v>725</v>
@@ -23395,7 +23398,7 @@
         <v>270</v>
       </c>
       <c r="T287" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U287" s="6" t="s">
         <v>725</v>
@@ -23458,7 +23461,7 @@
         <v>270</v>
       </c>
       <c r="T288" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U288" s="6" t="s">
         <v>725</v>
@@ -23521,7 +23524,7 @@
         <v>270</v>
       </c>
       <c r="T289" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U289" s="6" t="s">
         <v>725</v>
@@ -23584,7 +23587,7 @@
         <v>270</v>
       </c>
       <c r="T290" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U290" s="6" t="s">
         <v>725</v>
@@ -23647,7 +23650,7 @@
         <v>270</v>
       </c>
       <c r="T291" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U291" s="6" t="s">
         <v>725</v>
@@ -23710,7 +23713,7 @@
         <v>270</v>
       </c>
       <c r="T292" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U292" s="6" t="s">
         <v>725</v>
@@ -23773,7 +23776,7 @@
         <v>270</v>
       </c>
       <c r="T293" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U293" s="6" t="s">
         <v>725</v>
@@ -23836,7 +23839,7 @@
         <v>270</v>
       </c>
       <c r="T294" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U294" s="6" t="s">
         <v>725</v>
@@ -23899,7 +23902,7 @@
         <v>270</v>
       </c>
       <c r="T295" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U295" s="6" t="s">
         <v>725</v>
@@ -23962,7 +23965,7 @@
         <v>270</v>
       </c>
       <c r="T296" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U296" s="6" t="s">
         <v>725</v>
@@ -24025,7 +24028,7 @@
         <v>270</v>
       </c>
       <c r="T297" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U297" s="6" t="s">
         <v>725</v>
@@ -24088,7 +24091,7 @@
         <v>270</v>
       </c>
       <c r="T298" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U298" s="6" t="s">
         <v>725</v>
@@ -24151,7 +24154,7 @@
         <v>270</v>
       </c>
       <c r="T299" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U299" s="6" t="s">
         <v>725</v>
@@ -24214,7 +24217,7 @@
         <v>270</v>
       </c>
       <c r="T300" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U300" s="6" t="s">
         <v>725</v>
@@ -24277,7 +24280,7 @@
         <v>270</v>
       </c>
       <c r="T301" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U301" s="6" t="s">
         <v>725</v>
@@ -24340,7 +24343,7 @@
         <v>270</v>
       </c>
       <c r="T302" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U302" s="6" t="s">
         <v>725</v>
@@ -24403,7 +24406,7 @@
         <v>270</v>
       </c>
       <c r="T303" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U303" s="6" t="s">
         <v>725</v>
@@ -24466,7 +24469,7 @@
         <v>270</v>
       </c>
       <c r="T304" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U304" s="6" t="s">
         <v>725</v>
@@ -24529,7 +24532,7 @@
         <v>270</v>
       </c>
       <c r="T305" s="8" t="s">
-        <v>1744</v>
+        <v>1677</v>
       </c>
       <c r="U305" s="6" t="s">
         <v>725</v>
@@ -24592,7 +24595,7 @@
         <v>295</v>
       </c>
       <c r="T306" s="4" t="s">
-        <v>1745</v>
+        <v>1678</v>
       </c>
       <c r="U306" s="6" t="s">
         <v>301</v>
@@ -24655,7 +24658,7 @@
         <v>295</v>
       </c>
       <c r="T307" s="4" t="s">
-        <v>1745</v>
+        <v>1678</v>
       </c>
       <c r="U307" s="6" t="s">
         <v>301</v>
@@ -24718,7 +24721,7 @@
         <v>295</v>
       </c>
       <c r="T308" s="4" t="s">
-        <v>1745</v>
+        <v>1678</v>
       </c>
       <c r="U308" s="6" t="s">
         <v>301</v>
@@ -24781,7 +24784,7 @@
         <v>295</v>
       </c>
       <c r="T309" s="4" t="s">
-        <v>1745</v>
+        <v>1678</v>
       </c>
       <c r="U309" s="6" t="s">
         <v>301</v>
@@ -24844,7 +24847,7 @@
         <v>295</v>
       </c>
       <c r="T310" s="4" t="s">
-        <v>1745</v>
+        <v>1678</v>
       </c>
       <c r="U310" s="6" t="s">
         <v>301</v>
@@ -24907,7 +24910,7 @@
         <v>295</v>
       </c>
       <c r="T311" s="4" t="s">
-        <v>1745</v>
+        <v>1678</v>
       </c>
       <c r="U311" s="6" t="s">
         <v>301</v>
@@ -24970,7 +24973,7 @@
         <v>295</v>
       </c>
       <c r="T312" s="4" t="s">
-        <v>1745</v>
+        <v>1678</v>
       </c>
       <c r="U312" s="6" t="s">
         <v>301</v>
@@ -25033,7 +25036,7 @@
         <v>295</v>
       </c>
       <c r="T313" s="4" t="s">
-        <v>1745</v>
+        <v>1678</v>
       </c>
       <c r="U313" s="6" t="s">
         <v>301</v>
@@ -25096,7 +25099,7 @@
         <v>295</v>
       </c>
       <c r="T314" s="4" t="s">
-        <v>1745</v>
+        <v>1678</v>
       </c>
       <c r="U314" s="6" t="s">
         <v>301</v>
@@ -25159,7 +25162,7 @@
         <v>295</v>
       </c>
       <c r="T315" s="4" t="s">
-        <v>1745</v>
+        <v>1678</v>
       </c>
       <c r="U315" s="6" t="s">
         <v>301</v>
@@ -25222,7 +25225,7 @@
         <v>295</v>
       </c>
       <c r="T316" s="4" t="s">
-        <v>1745</v>
+        <v>1678</v>
       </c>
       <c r="U316" s="6" t="s">
         <v>301</v>
@@ -25285,7 +25288,7 @@
         <v>295</v>
       </c>
       <c r="T317" s="4" t="s">
-        <v>1745</v>
+        <v>1678</v>
       </c>
       <c r="U317" s="6" t="s">
         <v>301</v>
@@ -25348,7 +25351,7 @@
         <v>270</v>
       </c>
       <c r="T318" s="7" t="s">
-        <v>1746</v>
+        <v>1679</v>
       </c>
       <c r="U318" s="4" t="s">
         <v>305</v>
@@ -25411,7 +25414,7 @@
         <v>270</v>
       </c>
       <c r="T319" s="7" t="s">
-        <v>1747</v>
+        <v>1680</v>
       </c>
       <c r="U319" s="4" t="s">
         <v>305</v>
@@ -25474,7 +25477,7 @@
         <v>270</v>
       </c>
       <c r="T320" s="7" t="s">
-        <v>1748</v>
+        <v>1681</v>
       </c>
       <c r="U320" s="4" t="s">
         <v>305</v>
@@ -25537,7 +25540,7 @@
         <v>270</v>
       </c>
       <c r="T321" s="7" t="s">
-        <v>1749</v>
+        <v>1682</v>
       </c>
       <c r="U321" s="4" t="s">
         <v>305</v>
@@ -25600,7 +25603,7 @@
         <v>270</v>
       </c>
       <c r="T322" s="7" t="s">
-        <v>1750</v>
+        <v>1683</v>
       </c>
       <c r="U322" s="4" t="s">
         <v>305</v>
@@ -25663,7 +25666,7 @@
         <v>270</v>
       </c>
       <c r="T323" s="7" t="s">
-        <v>1751</v>
+        <v>1684</v>
       </c>
       <c r="U323" s="4" t="s">
         <v>305</v>
@@ -25726,7 +25729,7 @@
         <v>270</v>
       </c>
       <c r="T324" s="7" t="s">
-        <v>1752</v>
+        <v>1685</v>
       </c>
       <c r="U324" s="4" t="s">
         <v>305</v>
@@ -25789,7 +25792,7 @@
         <v>270</v>
       </c>
       <c r="T325" s="7" t="s">
-        <v>1753</v>
+        <v>1686</v>
       </c>
       <c r="U325" s="4" t="s">
         <v>305</v>
@@ -25852,7 +25855,7 @@
         <v>270</v>
       </c>
       <c r="T326" s="7" t="s">
-        <v>1754</v>
+        <v>1687</v>
       </c>
       <c r="U326" s="4" t="s">
         <v>305</v>
@@ -25915,7 +25918,7 @@
         <v>270</v>
       </c>
       <c r="T327" s="7" t="s">
-        <v>1755</v>
+        <v>1688</v>
       </c>
       <c r="U327" s="4" t="s">
         <v>305</v>
@@ -25978,7 +25981,7 @@
         <v>270</v>
       </c>
       <c r="T328" s="7" t="s">
-        <v>1756</v>
+        <v>1689</v>
       </c>
       <c r="U328" s="4" t="s">
         <v>305</v>
@@ -26041,7 +26044,7 @@
         <v>270</v>
       </c>
       <c r="T329" s="7" t="s">
-        <v>1757</v>
+        <v>1690</v>
       </c>
       <c r="U329" s="4" t="s">
         <v>305</v>
@@ -26104,7 +26107,7 @@
         <v>270</v>
       </c>
       <c r="T330" s="7" t="s">
-        <v>1758</v>
+        <v>1691</v>
       </c>
       <c r="U330" s="4" t="s">
         <v>305</v>
@@ -26167,7 +26170,7 @@
         <v>270</v>
       </c>
       <c r="T331" s="7" t="s">
-        <v>1759</v>
+        <v>1692</v>
       </c>
       <c r="U331" s="4" t="s">
         <v>305</v>
@@ -26230,7 +26233,7 @@
         <v>270</v>
       </c>
       <c r="T332" s="7" t="s">
-        <v>1760</v>
+        <v>1693</v>
       </c>
       <c r="U332" s="4" t="s">
         <v>305</v>
@@ -26293,7 +26296,7 @@
         <v>270</v>
       </c>
       <c r="T333" s="7" t="s">
-        <v>1761</v>
+        <v>1694</v>
       </c>
       <c r="U333" s="4" t="s">
         <v>305</v>
@@ -26356,7 +26359,7 @@
         <v>270</v>
       </c>
       <c r="T334" s="7" t="s">
-        <v>1762</v>
+        <v>1695</v>
       </c>
       <c r="U334" s="4" t="s">
         <v>305</v>
@@ -26419,7 +26422,7 @@
         <v>270</v>
       </c>
       <c r="T335" s="7" t="s">
-        <v>1763</v>
+        <v>1696</v>
       </c>
       <c r="U335" s="4" t="s">
         <v>305</v>
@@ -26482,7 +26485,7 @@
         <v>270</v>
       </c>
       <c r="T336" s="7" t="s">
-        <v>1764</v>
+        <v>1697</v>
       </c>
       <c r="U336" s="4" t="s">
         <v>305</v>
@@ -26545,7 +26548,7 @@
         <v>270</v>
       </c>
       <c r="T337" s="7" t="s">
-        <v>1765</v>
+        <v>1698</v>
       </c>
       <c r="U337" s="4" t="s">
         <v>305</v>
@@ -26608,7 +26611,7 @@
         <v>270</v>
       </c>
       <c r="T338" s="7" t="s">
-        <v>1766</v>
+        <v>1699</v>
       </c>
       <c r="U338" s="4" t="s">
         <v>305</v>
@@ -26671,7 +26674,7 @@
         <v>270</v>
       </c>
       <c r="T339" s="7" t="s">
-        <v>1767</v>
+        <v>1700</v>
       </c>
       <c r="U339" s="4" t="s">
         <v>305</v>
@@ -26734,7 +26737,7 @@
         <v>270</v>
       </c>
       <c r="T340" s="7" t="s">
-        <v>1768</v>
+        <v>1701</v>
       </c>
       <c r="U340" s="4" t="s">
         <v>305</v>
@@ -26797,7 +26800,7 @@
         <v>270</v>
       </c>
       <c r="T341" s="7" t="s">
-        <v>1769</v>
+        <v>1702</v>
       </c>
       <c r="U341" s="4" t="s">
         <v>305</v>
@@ -26860,7 +26863,7 @@
         <v>270</v>
       </c>
       <c r="T342" s="7" t="s">
-        <v>1770</v>
+        <v>1703</v>
       </c>
       <c r="U342" s="4" t="s">
         <v>305</v>
@@ -26923,7 +26926,7 @@
         <v>270</v>
       </c>
       <c r="T343" s="7" t="s">
-        <v>1771</v>
+        <v>1704</v>
       </c>
       <c r="U343" s="4" t="s">
         <v>305</v>
@@ -26986,7 +26989,7 @@
         <v>270</v>
       </c>
       <c r="T344" s="7" t="s">
-        <v>1772</v>
+        <v>1705</v>
       </c>
       <c r="U344" s="4" t="s">
         <v>305</v>
@@ -27049,7 +27052,7 @@
         <v>270</v>
       </c>
       <c r="T345" s="7" t="s">
-        <v>1773</v>
+        <v>1706</v>
       </c>
       <c r="U345" s="4" t="s">
         <v>305</v>
@@ -27112,7 +27115,7 @@
         <v>270</v>
       </c>
       <c r="T346" s="7" t="s">
-        <v>1774</v>
+        <v>1707</v>
       </c>
       <c r="U346" s="4" t="s">
         <v>305</v>
@@ -27175,7 +27178,7 @@
         <v>270</v>
       </c>
       <c r="T347" s="7" t="s">
-        <v>1775</v>
+        <v>1708</v>
       </c>
       <c r="U347" s="4" t="s">
         <v>305</v>
@@ -27238,7 +27241,7 @@
         <v>172</v>
       </c>
       <c r="T348" s="1" t="s">
-        <v>1737</v>
+        <v>1670</v>
       </c>
       <c r="U348" s="4" t="s">
         <v>314</v>
@@ -27301,7 +27304,7 @@
         <v>172</v>
       </c>
       <c r="T349" s="1" t="s">
-        <v>1737</v>
+        <v>1670</v>
       </c>
       <c r="U349" s="4" t="s">
         <v>314</v>
@@ -27364,7 +27367,7 @@
         <v>172</v>
       </c>
       <c r="T350" s="1" t="s">
-        <v>1737</v>
+        <v>1670</v>
       </c>
       <c r="U350" s="4" t="s">
         <v>314</v>
@@ -27427,7 +27430,7 @@
         <v>172</v>
       </c>
       <c r="T351" s="1" t="s">
-        <v>1737</v>
+        <v>1670</v>
       </c>
       <c r="U351" s="4" t="s">
         <v>314</v>
@@ -27490,7 +27493,7 @@
         <v>172</v>
       </c>
       <c r="T352" s="1" t="s">
-        <v>1737</v>
+        <v>1670</v>
       </c>
       <c r="U352" s="4" t="s">
         <v>314</v>
@@ -27553,7 +27556,7 @@
         <v>172</v>
       </c>
       <c r="T353" s="1" t="s">
-        <v>1737</v>
+        <v>1670</v>
       </c>
       <c r="U353" s="4" t="s">
         <v>314</v>
@@ -27616,7 +27619,7 @@
         <v>172</v>
       </c>
       <c r="T354" s="1" t="s">
-        <v>1737</v>
+        <v>1670</v>
       </c>
       <c r="U354" s="4" t="s">
         <v>314</v>
@@ -27679,7 +27682,7 @@
         <v>172</v>
       </c>
       <c r="T355" s="1" t="s">
-        <v>1737</v>
+        <v>1670</v>
       </c>
       <c r="U355" s="4" t="s">
         <v>314</v>
@@ -27742,7 +27745,7 @@
         <v>172</v>
       </c>
       <c r="T356" s="1" t="s">
-        <v>1737</v>
+        <v>1670</v>
       </c>
       <c r="U356" s="4" t="s">
         <v>314</v>
@@ -27805,7 +27808,7 @@
         <v>172</v>
       </c>
       <c r="T357" s="1" t="s">
-        <v>1737</v>
+        <v>1670</v>
       </c>
       <c r="U357" s="4" t="s">
         <v>314</v>
@@ -27868,7 +27871,7 @@
         <v>172</v>
       </c>
       <c r="T358" s="1" t="s">
-        <v>1737</v>
+        <v>1670</v>
       </c>
       <c r="U358" s="4" t="s">
         <v>314</v>
@@ -39285,7 +39288,7 @@
         <v>355</v>
       </c>
       <c r="D549" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E549" s="5" t="s">
         <v>365</v>
@@ -39331,7 +39334,7 @@
         <v>364</v>
       </c>
       <c r="T549" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U549" s="5" t="s">
         <v>363</v>
@@ -39348,7 +39351,7 @@
         <v>356</v>
       </c>
       <c r="D550" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E550" s="5" t="s">
         <v>365</v>
@@ -39394,7 +39397,7 @@
         <v>364</v>
       </c>
       <c r="T550" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U550" s="5" t="s">
         <v>363</v>
@@ -39411,7 +39414,7 @@
         <v>356</v>
       </c>
       <c r="D551" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E551" s="5" t="s">
         <v>365</v>
@@ -39457,7 +39460,7 @@
         <v>364</v>
       </c>
       <c r="T551" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U551" s="5" t="s">
         <v>363</v>
@@ -39474,7 +39477,7 @@
         <v>356</v>
       </c>
       <c r="D552" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E552" s="5" t="s">
         <v>365</v>
@@ -39520,7 +39523,7 @@
         <v>364</v>
       </c>
       <c r="T552" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U552" s="5" t="s">
         <v>363</v>
@@ -39537,7 +39540,7 @@
         <v>356</v>
       </c>
       <c r="D553" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E553" s="5" t="s">
         <v>365</v>
@@ -39583,7 +39586,7 @@
         <v>364</v>
       </c>
       <c r="T553" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U553" s="5" t="s">
         <v>363</v>
@@ -39600,7 +39603,7 @@
         <v>357</v>
       </c>
       <c r="D554" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E554" s="5" t="s">
         <v>365</v>
@@ -39646,7 +39649,7 @@
         <v>364</v>
       </c>
       <c r="T554" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U554" s="5" t="s">
         <v>363</v>
@@ -39663,7 +39666,7 @@
         <v>358</v>
       </c>
       <c r="D555" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E555" s="5" t="s">
         <v>365</v>
@@ -39709,7 +39712,7 @@
         <v>364</v>
       </c>
       <c r="T555" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U555" s="5" t="s">
         <v>363</v>
@@ -39726,7 +39729,7 @@
         <v>358</v>
       </c>
       <c r="D556" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E556" s="5" t="s">
         <v>365</v>
@@ -39772,7 +39775,7 @@
         <v>364</v>
       </c>
       <c r="T556" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U556" s="5" t="s">
         <v>363</v>
@@ -39789,7 +39792,7 @@
         <v>358</v>
       </c>
       <c r="D557" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E557" s="5" t="s">
         <v>365</v>
@@ -39835,7 +39838,7 @@
         <v>364</v>
       </c>
       <c r="T557" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U557" s="5" t="s">
         <v>363</v>
@@ -39852,7 +39855,7 @@
         <v>358</v>
       </c>
       <c r="D558" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E558" s="5" t="s">
         <v>365</v>
@@ -39898,7 +39901,7 @@
         <v>364</v>
       </c>
       <c r="T558" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U558" s="5" t="s">
         <v>363</v>
@@ -39915,7 +39918,7 @@
         <v>359</v>
       </c>
       <c r="D559" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E559" s="5" t="s">
         <v>365</v>
@@ -39961,7 +39964,7 @@
         <v>364</v>
       </c>
       <c r="T559" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U559" s="5" t="s">
         <v>363</v>
@@ -39978,7 +39981,7 @@
         <v>359</v>
       </c>
       <c r="D560" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E560" s="5" t="s">
         <v>365</v>
@@ -40024,7 +40027,7 @@
         <v>364</v>
       </c>
       <c r="T560" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U560" s="5" t="s">
         <v>363</v>
@@ -40041,7 +40044,7 @@
         <v>359</v>
       </c>
       <c r="D561" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E561" s="5" t="s">
         <v>365</v>
@@ -40087,7 +40090,7 @@
         <v>364</v>
       </c>
       <c r="T561" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U561" s="5" t="s">
         <v>363</v>
@@ -40104,7 +40107,7 @@
         <v>359</v>
       </c>
       <c r="D562" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E562" s="5" t="s">
         <v>365</v>
@@ -40150,7 +40153,7 @@
         <v>364</v>
       </c>
       <c r="T562" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U562" s="5" t="s">
         <v>363</v>
@@ -40167,7 +40170,7 @@
         <v>15</v>
       </c>
       <c r="D563" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E563" s="5" t="s">
         <v>365</v>
@@ -40213,7 +40216,7 @@
         <v>364</v>
       </c>
       <c r="T563" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U563" s="5" t="s">
         <v>363</v>
@@ -40230,7 +40233,7 @@
         <v>15</v>
       </c>
       <c r="D564" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E564" s="5" t="s">
         <v>365</v>
@@ -40276,7 +40279,7 @@
         <v>364</v>
       </c>
       <c r="T564" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U564" s="5" t="s">
         <v>363</v>
@@ -40293,7 +40296,7 @@
         <v>15</v>
       </c>
       <c r="D565" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E565" s="5" t="s">
         <v>365</v>
@@ -40339,7 +40342,7 @@
         <v>364</v>
       </c>
       <c r="T565" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U565" s="5" t="s">
         <v>363</v>
@@ -40356,7 +40359,7 @@
         <v>15</v>
       </c>
       <c r="D566" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E566" s="5" t="s">
         <v>365</v>
@@ -40402,7 +40405,7 @@
         <v>364</v>
       </c>
       <c r="T566" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U566" s="5" t="s">
         <v>363</v>
@@ -40419,7 +40422,7 @@
         <v>360</v>
       </c>
       <c r="D567" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E567" s="5" t="s">
         <v>365</v>
@@ -40465,7 +40468,7 @@
         <v>364</v>
       </c>
       <c r="T567" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U567" s="5" t="s">
         <v>363</v>
@@ -40482,7 +40485,7 @@
         <v>361</v>
       </c>
       <c r="D568" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E568" s="5" t="s">
         <v>365</v>
@@ -40528,7 +40531,7 @@
         <v>364</v>
       </c>
       <c r="T568" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U568" s="5" t="s">
         <v>363</v>
@@ -40545,7 +40548,7 @@
         <v>361</v>
       </c>
       <c r="D569" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E569" s="5" t="s">
         <v>365</v>
@@ -40591,7 +40594,7 @@
         <v>364</v>
       </c>
       <c r="T569" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U569" s="5" t="s">
         <v>363</v>
@@ -40608,7 +40611,7 @@
         <v>361</v>
       </c>
       <c r="D570" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E570" s="5" t="s">
         <v>365</v>
@@ -40654,7 +40657,7 @@
         <v>364</v>
       </c>
       <c r="T570" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U570" s="5" t="s">
         <v>363</v>
@@ -40671,7 +40674,7 @@
         <v>361</v>
       </c>
       <c r="D571" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E571" s="5" t="s">
         <v>365</v>
@@ -40717,7 +40720,7 @@
         <v>364</v>
       </c>
       <c r="T571" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U571" s="5" t="s">
         <v>363</v>
@@ -40734,7 +40737,7 @@
         <v>362</v>
       </c>
       <c r="D572" s="5" t="s">
-        <v>1739</v>
+        <v>1672</v>
       </c>
       <c r="E572" s="5" t="s">
         <v>365</v>
@@ -40780,7 +40783,7 @@
         <v>364</v>
       </c>
       <c r="T572" s="5" t="s">
-        <v>1738</v>
+        <v>1671</v>
       </c>
       <c r="U572" s="5" t="s">
         <v>363</v>
@@ -45522,6 +45525,9 @@
       <c r="S651" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T651" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U651" s="1" t="s">
         <v>394</v>
       </c>
@@ -45582,6 +45588,9 @@
       <c r="S652" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T652" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U652" s="1" t="s">
         <v>394</v>
       </c>
@@ -45642,6 +45651,9 @@
       <c r="S653" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T653" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U653" s="1" t="s">
         <v>394</v>
       </c>
@@ -45702,6 +45714,9 @@
       <c r="S654" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T654" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U654" s="1" t="s">
         <v>394</v>
       </c>
@@ -45762,6 +45777,9 @@
       <c r="S655" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T655" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U655" s="1" t="s">
         <v>394</v>
       </c>
@@ -45822,6 +45840,9 @@
       <c r="S656" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T656" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U656" s="1" t="s">
         <v>394</v>
       </c>
@@ -45882,6 +45903,9 @@
       <c r="S657" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T657" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U657" s="1" t="s">
         <v>394</v>
       </c>
@@ -45942,6 +45966,9 @@
       <c r="S658" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T658" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U658" s="1" t="s">
         <v>394</v>
       </c>
@@ -46002,6 +46029,9 @@
       <c r="S659" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T659" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U659" s="1" t="s">
         <v>394</v>
       </c>
@@ -46062,6 +46092,9 @@
       <c r="S660" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T660" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U660" s="1" t="s">
         <v>394</v>
       </c>
@@ -46122,6 +46155,9 @@
       <c r="S661" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T661" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U661" s="1" t="s">
         <v>394</v>
       </c>
@@ -46182,6 +46218,9 @@
       <c r="S662" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T662" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U662" s="1" t="s">
         <v>394</v>
       </c>
@@ -46242,6 +46281,9 @@
       <c r="S663" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T663" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U663" s="1" t="s">
         <v>394</v>
       </c>
@@ -46302,6 +46344,9 @@
       <c r="S664" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T664" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U664" s="1" t="s">
         <v>394</v>
       </c>
@@ -46362,6 +46407,9 @@
       <c r="S665" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T665" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U665" s="1" t="s">
         <v>394</v>
       </c>
@@ -46422,6 +46470,9 @@
       <c r="S666" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T666" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U666" s="1" t="s">
         <v>394</v>
       </c>
@@ -46482,6 +46533,9 @@
       <c r="S667" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T667" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U667" s="1" t="s">
         <v>394</v>
       </c>
@@ -46542,6 +46596,9 @@
       <c r="S668" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T668" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U668" s="1" t="s">
         <v>394</v>
       </c>
@@ -46602,6 +46659,9 @@
       <c r="S669" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T669" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U669" s="1" t="s">
         <v>394</v>
       </c>
@@ -46662,16 +46722,19 @@
       <c r="S670" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="T670" s="4" t="s">
+        <v>1709</v>
+      </c>
       <c r="U670" s="1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="671" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A671" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B671" s="4" t="s">
         <v>1481</v>
-      </c>
-      <c r="B671" s="4" t="s">
-        <v>1482</v>
       </c>
       <c r="C671" s="1">
         <v>25</v>
@@ -46723,7 +46786,7 @@
         <v>403</v>
       </c>
       <c r="T671" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U671" s="1" t="s">
         <v>404</v>
@@ -46731,10 +46794,10 @@
     </row>
     <row r="672" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A672" s="4" t="s">
-        <v>1483</v>
+        <v>1711</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C672" s="1">
         <v>25</v>
@@ -46786,7 +46849,7 @@
         <v>403</v>
       </c>
       <c r="T672" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U672" s="1" t="s">
         <v>404</v>
@@ -46794,10 +46857,10 @@
     </row>
     <row r="673" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A673" s="4" t="s">
-        <v>1485</v>
+        <v>1712</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C673" s="1">
         <v>25</v>
@@ -46849,7 +46912,7 @@
         <v>403</v>
       </c>
       <c r="T673" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U673" s="1" t="s">
         <v>404</v>
@@ -46857,10 +46920,10 @@
     </row>
     <row r="674" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A674" s="4" t="s">
-        <v>1487</v>
+        <v>1713</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="C674" s="1">
         <v>25</v>
@@ -46912,7 +46975,7 @@
         <v>403</v>
       </c>
       <c r="T674" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U674" s="1" t="s">
         <v>404</v>
@@ -46920,10 +46983,10 @@
     </row>
     <row r="675" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A675" s="4" t="s">
-        <v>1489</v>
+        <v>1714</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="C675" s="1">
         <v>25</v>
@@ -46975,7 +47038,7 @@
         <v>403</v>
       </c>
       <c r="T675" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U675" s="1" t="s">
         <v>404</v>
@@ -46983,10 +47046,10 @@
     </row>
     <row r="676" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A676" s="4" t="s">
-        <v>1491</v>
+        <v>1715</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="C676" s="1">
         <v>25</v>
@@ -47038,7 +47101,7 @@
         <v>403</v>
       </c>
       <c r="T676" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U676" s="1" t="s">
         <v>404</v>
@@ -47046,10 +47109,10 @@
     </row>
     <row r="677" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A677" s="4" t="s">
-        <v>1493</v>
+        <v>1716</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="C677" s="1">
         <v>25</v>
@@ -47101,7 +47164,7 @@
         <v>403</v>
       </c>
       <c r="T677" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U677" s="1" t="s">
         <v>404</v>
@@ -47109,10 +47172,10 @@
     </row>
     <row r="678" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A678" s="4" t="s">
-        <v>1495</v>
+        <v>1717</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="C678" s="1">
         <v>25</v>
@@ -47164,7 +47227,7 @@
         <v>403</v>
       </c>
       <c r="T678" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U678" s="1" t="s">
         <v>404</v>
@@ -47172,10 +47235,10 @@
     </row>
     <row r="679" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A679" s="4" t="s">
-        <v>1497</v>
+        <v>1718</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="C679" s="1">
         <v>25</v>
@@ -47227,7 +47290,7 @@
         <v>403</v>
       </c>
       <c r="T679" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U679" s="1" t="s">
         <v>404</v>
@@ -47235,10 +47298,10 @@
     </row>
     <row r="680" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A680" s="4" t="s">
-        <v>1499</v>
+        <v>1719</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="C680" s="1">
         <v>25</v>
@@ -47290,7 +47353,7 @@
         <v>403</v>
       </c>
       <c r="T680" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U680" s="1" t="s">
         <v>404</v>
@@ -47298,10 +47361,10 @@
     </row>
     <row r="681" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A681" s="4" t="s">
-        <v>1501</v>
+        <v>1720</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="C681" s="1">
         <v>25</v>
@@ -47353,7 +47416,7 @@
         <v>403</v>
       </c>
       <c r="T681" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U681" s="1" t="s">
         <v>404</v>
@@ -47361,10 +47424,10 @@
     </row>
     <row r="682" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A682" s="4" t="s">
-        <v>1503</v>
+        <v>1721</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>1504</v>
+        <v>1492</v>
       </c>
       <c r="C682" s="1">
         <v>25</v>
@@ -47416,7 +47479,7 @@
         <v>403</v>
       </c>
       <c r="T682" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U682" s="1" t="s">
         <v>404</v>
@@ -47424,10 +47487,10 @@
     </row>
     <row r="683" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A683" s="4" t="s">
-        <v>1505</v>
+        <v>1722</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>1506</v>
+        <v>1493</v>
       </c>
       <c r="C683" s="1">
         <v>25</v>
@@ -47479,7 +47542,7 @@
         <v>403</v>
       </c>
       <c r="T683" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U683" s="1" t="s">
         <v>404</v>
@@ -47487,10 +47550,10 @@
     </row>
     <row r="684" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A684" s="4" t="s">
-        <v>1507</v>
+        <v>1723</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
       <c r="C684" s="1">
         <v>25</v>
@@ -47542,7 +47605,7 @@
         <v>403</v>
       </c>
       <c r="T684" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U684" s="1" t="s">
         <v>404</v>
@@ -47550,10 +47613,10 @@
     </row>
     <row r="685" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A685" s="4" t="s">
-        <v>1509</v>
+        <v>1724</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>1510</v>
+        <v>1495</v>
       </c>
       <c r="C685" s="1">
         <v>25</v>
@@ -47605,7 +47668,7 @@
         <v>403</v>
       </c>
       <c r="T685" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U685" s="1" t="s">
         <v>404</v>
@@ -47613,10 +47676,10 @@
     </row>
     <row r="686" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A686" s="4" t="s">
-        <v>1511</v>
+        <v>1725</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>1512</v>
+        <v>1496</v>
       </c>
       <c r="C686" s="1">
         <v>25</v>
@@ -47668,7 +47731,7 @@
         <v>403</v>
       </c>
       <c r="T686" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U686" s="1" t="s">
         <v>404</v>
@@ -47676,10 +47739,10 @@
     </row>
     <row r="687" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A687" s="4" t="s">
-        <v>1513</v>
+        <v>1726</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>1514</v>
+        <v>1497</v>
       </c>
       <c r="C687" s="1">
         <v>25</v>
@@ -47731,7 +47794,7 @@
         <v>403</v>
       </c>
       <c r="T687" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U687" s="1" t="s">
         <v>404</v>
@@ -47739,10 +47802,10 @@
     </row>
     <row r="688" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A688" s="4" t="s">
-        <v>1515</v>
+        <v>1727</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>1516</v>
+        <v>1498</v>
       </c>
       <c r="C688" s="1">
         <v>25</v>
@@ -47794,7 +47857,7 @@
         <v>403</v>
       </c>
       <c r="T688" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U688" s="1" t="s">
         <v>404</v>
@@ -47802,10 +47865,10 @@
     </row>
     <row r="689" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A689" s="4" t="s">
-        <v>1517</v>
+        <v>1728</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>1518</v>
+        <v>1499</v>
       </c>
       <c r="C689" s="1">
         <v>25</v>
@@ -47857,7 +47920,7 @@
         <v>403</v>
       </c>
       <c r="T689" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U689" s="1" t="s">
         <v>404</v>
@@ -47865,10 +47928,10 @@
     </row>
     <row r="690" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A690" s="4" t="s">
-        <v>1519</v>
+        <v>1729</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>1520</v>
+        <v>1500</v>
       </c>
       <c r="C690" s="1">
         <v>25</v>
@@ -47920,7 +47983,7 @@
         <v>403</v>
       </c>
       <c r="T690" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U690" s="1" t="s">
         <v>404</v>
@@ -47928,10 +47991,10 @@
     </row>
     <row r="691" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A691" s="4" t="s">
-        <v>1521</v>
+        <v>1730</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>1522</v>
+        <v>1501</v>
       </c>
       <c r="C691" s="1">
         <v>25</v>
@@ -47983,7 +48046,7 @@
         <v>403</v>
       </c>
       <c r="T691" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U691" s="1" t="s">
         <v>404</v>
@@ -47991,10 +48054,10 @@
     </row>
     <row r="692" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A692" s="4" t="s">
-        <v>1523</v>
+        <v>1731</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>1524</v>
+        <v>1502</v>
       </c>
       <c r="C692" s="1">
         <v>25</v>
@@ -48046,7 +48109,7 @@
         <v>403</v>
       </c>
       <c r="T692" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U692" s="1" t="s">
         <v>404</v>
@@ -48054,10 +48117,10 @@
     </row>
     <row r="693" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A693" s="4" t="s">
-        <v>1525</v>
+        <v>1732</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>1526</v>
+        <v>1503</v>
       </c>
       <c r="C693" s="1">
         <v>25</v>
@@ -48109,7 +48172,7 @@
         <v>403</v>
       </c>
       <c r="T693" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U693" s="1" t="s">
         <v>404</v>
@@ -48117,10 +48180,10 @@
     </row>
     <row r="694" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A694" s="4" t="s">
-        <v>1527</v>
+        <v>1733</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>1528</v>
+        <v>1504</v>
       </c>
       <c r="C694" s="1">
         <v>25</v>
@@ -48172,7 +48235,7 @@
         <v>403</v>
       </c>
       <c r="T694" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U694" s="1" t="s">
         <v>404</v>
@@ -48180,10 +48243,10 @@
     </row>
     <row r="695" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A695" s="4" t="s">
-        <v>1529</v>
+        <v>1734</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>1530</v>
+        <v>1505</v>
       </c>
       <c r="C695" s="1">
         <v>25</v>
@@ -48235,7 +48298,7 @@
         <v>403</v>
       </c>
       <c r="T695" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U695" s="1" t="s">
         <v>404</v>
@@ -48243,10 +48306,10 @@
     </row>
     <row r="696" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A696" s="4" t="s">
-        <v>1531</v>
+        <v>1735</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>1532</v>
+        <v>1506</v>
       </c>
       <c r="C696" s="1">
         <v>25</v>
@@ -48298,7 +48361,7 @@
         <v>403</v>
       </c>
       <c r="T696" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U696" s="1" t="s">
         <v>404</v>
@@ -48306,10 +48369,10 @@
     </row>
     <row r="697" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A697" s="4" t="s">
-        <v>1533</v>
+        <v>1736</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>1534</v>
+        <v>1507</v>
       </c>
       <c r="C697" s="1">
         <v>25</v>
@@ -48361,7 +48424,7 @@
         <v>403</v>
       </c>
       <c r="T697" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U697" s="1" t="s">
         <v>404</v>
@@ -48369,10 +48432,10 @@
     </row>
     <row r="698" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A698" s="4" t="s">
-        <v>1535</v>
+        <v>1737</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>1536</v>
+        <v>1508</v>
       </c>
       <c r="C698" s="1">
         <v>25</v>
@@ -48424,7 +48487,7 @@
         <v>403</v>
       </c>
       <c r="T698" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U698" s="1" t="s">
         <v>404</v>
@@ -48432,10 +48495,10 @@
     </row>
     <row r="699" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A699" s="4" t="s">
-        <v>1537</v>
+        <v>1738</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>1538</v>
+        <v>1509</v>
       </c>
       <c r="C699" s="1">
         <v>25</v>
@@ -48487,7 +48550,7 @@
         <v>403</v>
       </c>
       <c r="T699" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U699" s="1" t="s">
         <v>404</v>
@@ -48495,10 +48558,10 @@
     </row>
     <row r="700" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A700" s="4" t="s">
-        <v>1539</v>
+        <v>1739</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>1540</v>
+        <v>1510</v>
       </c>
       <c r="C700" s="1">
         <v>25</v>
@@ -48550,7 +48613,7 @@
         <v>403</v>
       </c>
       <c r="T700" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U700" s="1" t="s">
         <v>404</v>
@@ -48558,10 +48621,10 @@
     </row>
     <row r="701" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A701" s="4" t="s">
-        <v>1541</v>
+        <v>1740</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>1542</v>
+        <v>1511</v>
       </c>
       <c r="C701" s="1">
         <v>25</v>
@@ -48613,7 +48676,7 @@
         <v>403</v>
       </c>
       <c r="T701" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U701" s="1" t="s">
         <v>404</v>
@@ -48621,10 +48684,10 @@
     </row>
     <row r="702" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A702" s="4" t="s">
-        <v>1543</v>
+        <v>1741</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>1544</v>
+        <v>1512</v>
       </c>
       <c r="C702" s="1">
         <v>25</v>
@@ -48676,7 +48739,7 @@
         <v>403</v>
       </c>
       <c r="T702" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U702" s="1" t="s">
         <v>404</v>
@@ -48684,10 +48747,10 @@
     </row>
     <row r="703" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A703" s="4" t="s">
-        <v>1545</v>
+        <v>1742</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>1546</v>
+        <v>1513</v>
       </c>
       <c r="C703" s="1">
         <v>25</v>
@@ -48739,7 +48802,7 @@
         <v>403</v>
       </c>
       <c r="T703" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U703" s="1" t="s">
         <v>404</v>
@@ -48747,10 +48810,10 @@
     </row>
     <row r="704" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A704" s="4" t="s">
-        <v>1547</v>
+        <v>1743</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>1548</v>
+        <v>1514</v>
       </c>
       <c r="C704" s="1">
         <v>25</v>
@@ -48802,7 +48865,7 @@
         <v>403</v>
       </c>
       <c r="T704" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U704" s="1" t="s">
         <v>404</v>
@@ -48810,10 +48873,10 @@
     </row>
     <row r="705" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A705" s="4" t="s">
-        <v>1549</v>
+        <v>1744</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>1550</v>
+        <v>1515</v>
       </c>
       <c r="C705" s="1">
         <v>25</v>
@@ -48865,7 +48928,7 @@
         <v>403</v>
       </c>
       <c r="T705" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U705" s="1" t="s">
         <v>404</v>
@@ -48873,10 +48936,10 @@
     </row>
     <row r="706" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A706" s="4" t="s">
-        <v>1551</v>
+        <v>1745</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>1552</v>
+        <v>1516</v>
       </c>
       <c r="C706" s="1">
         <v>25</v>
@@ -48928,7 +48991,7 @@
         <v>403</v>
       </c>
       <c r="T706" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U706" s="1" t="s">
         <v>404</v>
@@ -48936,10 +48999,10 @@
     </row>
     <row r="707" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A707" s="4" t="s">
-        <v>1553</v>
+        <v>1746</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>1554</v>
+        <v>1517</v>
       </c>
       <c r="C707" s="1">
         <v>25</v>
@@ -48991,7 +49054,7 @@
         <v>403</v>
       </c>
       <c r="T707" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U707" s="1" t="s">
         <v>404</v>
@@ -48999,10 +49062,10 @@
     </row>
     <row r="708" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A708" s="4" t="s">
-        <v>1555</v>
+        <v>1747</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>1556</v>
+        <v>1518</v>
       </c>
       <c r="C708" s="1">
         <v>25</v>
@@ -49054,7 +49117,7 @@
         <v>403</v>
       </c>
       <c r="T708" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U708" s="1" t="s">
         <v>404</v>
@@ -49062,10 +49125,10 @@
     </row>
     <row r="709" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A709" s="4" t="s">
-        <v>1557</v>
+        <v>1748</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>1558</v>
+        <v>1519</v>
       </c>
       <c r="C709" s="1">
         <v>25</v>
@@ -49117,7 +49180,7 @@
         <v>403</v>
       </c>
       <c r="T709" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U709" s="1" t="s">
         <v>404</v>
@@ -49125,10 +49188,10 @@
     </row>
     <row r="710" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A710" s="4" t="s">
-        <v>1559</v>
+        <v>1749</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>1560</v>
+        <v>1520</v>
       </c>
       <c r="C710" s="1">
         <v>25</v>
@@ -49180,7 +49243,7 @@
         <v>403</v>
       </c>
       <c r="T710" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U710" s="1" t="s">
         <v>404</v>
@@ -49188,10 +49251,10 @@
     </row>
     <row r="711" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A711" s="4" t="s">
-        <v>1561</v>
+        <v>1750</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>1562</v>
+        <v>1521</v>
       </c>
       <c r="C711" s="1">
         <v>25</v>
@@ -49243,7 +49306,7 @@
         <v>403</v>
       </c>
       <c r="T711" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U711" s="1" t="s">
         <v>404</v>
@@ -49251,10 +49314,10 @@
     </row>
     <row r="712" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A712" s="4" t="s">
-        <v>1563</v>
+        <v>1751</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>1564</v>
+        <v>1522</v>
       </c>
       <c r="C712" s="1">
         <v>25</v>
@@ -49306,7 +49369,7 @@
         <v>403</v>
       </c>
       <c r="T712" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U712" s="1" t="s">
         <v>404</v>
@@ -49314,10 +49377,10 @@
     </row>
     <row r="713" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A713" s="4" t="s">
-        <v>1565</v>
+        <v>1752</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>1566</v>
+        <v>1523</v>
       </c>
       <c r="C713" s="1">
         <v>25</v>
@@ -49369,7 +49432,7 @@
         <v>403</v>
       </c>
       <c r="T713" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U713" s="1" t="s">
         <v>404</v>
@@ -49377,10 +49440,10 @@
     </row>
     <row r="714" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A714" s="4" t="s">
-        <v>1567</v>
+        <v>1753</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>1568</v>
+        <v>1524</v>
       </c>
       <c r="C714" s="1">
         <v>25</v>
@@ -49432,7 +49495,7 @@
         <v>403</v>
       </c>
       <c r="T714" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U714" s="1" t="s">
         <v>404</v>
@@ -49440,10 +49503,10 @@
     </row>
     <row r="715" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A715" s="4" t="s">
-        <v>1569</v>
+        <v>1754</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>1570</v>
+        <v>1525</v>
       </c>
       <c r="C715" s="1">
         <v>25</v>
@@ -49495,7 +49558,7 @@
         <v>403</v>
       </c>
       <c r="T715" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U715" s="1" t="s">
         <v>404</v>
@@ -49503,10 +49566,10 @@
     </row>
     <row r="716" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A716" s="4" t="s">
-        <v>1571</v>
+        <v>1755</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>1572</v>
+        <v>1526</v>
       </c>
       <c r="C716" s="1">
         <v>25</v>
@@ -49558,7 +49621,7 @@
         <v>403</v>
       </c>
       <c r="T716" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U716" s="1" t="s">
         <v>404</v>
@@ -49566,10 +49629,10 @@
     </row>
     <row r="717" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A717" s="4" t="s">
-        <v>1573</v>
+        <v>1756</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>1574</v>
+        <v>1527</v>
       </c>
       <c r="C717" s="1">
         <v>25</v>
@@ -49621,7 +49684,7 @@
         <v>403</v>
       </c>
       <c r="T717" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U717" s="1" t="s">
         <v>404</v>
@@ -49629,10 +49692,10 @@
     </row>
     <row r="718" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A718" s="4" t="s">
-        <v>1575</v>
+        <v>1757</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>1576</v>
+        <v>1528</v>
       </c>
       <c r="C718" s="1">
         <v>25</v>
@@ -49684,7 +49747,7 @@
         <v>403</v>
       </c>
       <c r="T718" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U718" s="1" t="s">
         <v>404</v>
@@ -49692,10 +49755,10 @@
     </row>
     <row r="719" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A719" s="4" t="s">
-        <v>1577</v>
+        <v>1758</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>1578</v>
+        <v>1529</v>
       </c>
       <c r="C719" s="1">
         <v>25</v>
@@ -49747,7 +49810,7 @@
         <v>403</v>
       </c>
       <c r="T719" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U719" s="1" t="s">
         <v>404</v>
@@ -49755,10 +49818,10 @@
     </row>
     <row r="720" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A720" s="4" t="s">
-        <v>1579</v>
+        <v>1759</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>1580</v>
+        <v>1530</v>
       </c>
       <c r="C720" s="1">
         <v>25</v>
@@ -49810,7 +49873,7 @@
         <v>403</v>
       </c>
       <c r="T720" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U720" s="1" t="s">
         <v>404</v>
@@ -49818,10 +49881,10 @@
     </row>
     <row r="721" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A721" s="4" t="s">
-        <v>1581</v>
+        <v>1760</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>1582</v>
+        <v>1531</v>
       </c>
       <c r="C721" s="1">
         <v>25</v>
@@ -49873,7 +49936,7 @@
         <v>403</v>
       </c>
       <c r="T721" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U721" s="1" t="s">
         <v>404</v>
@@ -49881,10 +49944,10 @@
     </row>
     <row r="722" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A722" s="4" t="s">
-        <v>1583</v>
+        <v>1761</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>1584</v>
+        <v>1532</v>
       </c>
       <c r="C722" s="1">
         <v>25</v>
@@ -49936,7 +49999,7 @@
         <v>403</v>
       </c>
       <c r="T722" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U722" s="1" t="s">
         <v>404</v>
@@ -49944,10 +50007,10 @@
     </row>
     <row r="723" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A723" s="4" t="s">
-        <v>1585</v>
+        <v>1762</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>1586</v>
+        <v>1533</v>
       </c>
       <c r="C723" s="1">
         <v>25</v>
@@ -49999,7 +50062,7 @@
         <v>403</v>
       </c>
       <c r="T723" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U723" s="1" t="s">
         <v>404</v>
@@ -50007,10 +50070,10 @@
     </row>
     <row r="724" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A724" s="4" t="s">
-        <v>1587</v>
+        <v>1763</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>1588</v>
+        <v>1534</v>
       </c>
       <c r="C724" s="1">
         <v>25</v>
@@ -50062,7 +50125,7 @@
         <v>403</v>
       </c>
       <c r="T724" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U724" s="1" t="s">
         <v>404</v>
@@ -50070,10 +50133,10 @@
     </row>
     <row r="725" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A725" s="4" t="s">
-        <v>1589</v>
+        <v>1764</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>1590</v>
+        <v>1535</v>
       </c>
       <c r="C725" s="1">
         <v>25</v>
@@ -50125,7 +50188,7 @@
         <v>403</v>
       </c>
       <c r="T725" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U725" s="1" t="s">
         <v>404</v>
@@ -50133,10 +50196,10 @@
     </row>
     <row r="726" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A726" s="4" t="s">
-        <v>1591</v>
+        <v>1765</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>1592</v>
+        <v>1536</v>
       </c>
       <c r="C726" s="1">
         <v>25</v>
@@ -50188,7 +50251,7 @@
         <v>403</v>
       </c>
       <c r="T726" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U726" s="1" t="s">
         <v>404</v>
@@ -50196,10 +50259,10 @@
     </row>
     <row r="727" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A727" s="4" t="s">
-        <v>1593</v>
+        <v>1766</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>1594</v>
+        <v>1537</v>
       </c>
       <c r="C727" s="1">
         <v>25</v>
@@ -50251,7 +50314,7 @@
         <v>403</v>
       </c>
       <c r="T727" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U727" s="1" t="s">
         <v>404</v>
@@ -50259,10 +50322,10 @@
     </row>
     <row r="728" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A728" s="4" t="s">
-        <v>1595</v>
+        <v>1767</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>1596</v>
+        <v>1538</v>
       </c>
       <c r="C728" s="1">
         <v>25</v>
@@ -50314,7 +50377,7 @@
         <v>403</v>
       </c>
       <c r="T728" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U728" s="1" t="s">
         <v>404</v>
@@ -50322,10 +50385,10 @@
     </row>
     <row r="729" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A729" s="4" t="s">
-        <v>1597</v>
+        <v>1768</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>1598</v>
+        <v>1539</v>
       </c>
       <c r="C729" s="1">
         <v>25</v>
@@ -50377,7 +50440,7 @@
         <v>403</v>
       </c>
       <c r="T729" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U729" s="1" t="s">
         <v>404</v>
@@ -50385,10 +50448,10 @@
     </row>
     <row r="730" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A730" s="4" t="s">
-        <v>1599</v>
+        <v>1769</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>1600</v>
+        <v>1540</v>
       </c>
       <c r="C730" s="1">
         <v>25</v>
@@ -50440,7 +50503,7 @@
         <v>403</v>
       </c>
       <c r="T730" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U730" s="1" t="s">
         <v>404</v>
@@ -50448,10 +50511,10 @@
     </row>
     <row r="731" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A731" s="4" t="s">
-        <v>1601</v>
+        <v>1770</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>1602</v>
+        <v>1541</v>
       </c>
       <c r="C731" s="1">
         <v>25</v>
@@ -50503,7 +50566,7 @@
         <v>403</v>
       </c>
       <c r="T731" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U731" s="1" t="s">
         <v>404</v>
@@ -50511,10 +50574,10 @@
     </row>
     <row r="732" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A732" s="4" t="s">
-        <v>1603</v>
+        <v>1771</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>1604</v>
+        <v>1542</v>
       </c>
       <c r="C732" s="1">
         <v>25</v>
@@ -50566,7 +50629,7 @@
         <v>403</v>
       </c>
       <c r="T732" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U732" s="1" t="s">
         <v>404</v>
@@ -50574,10 +50637,10 @@
     </row>
     <row r="733" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A733" s="4" t="s">
-        <v>1605</v>
+        <v>1772</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>1606</v>
+        <v>1543</v>
       </c>
       <c r="C733" s="1">
         <v>25</v>
@@ -50629,7 +50692,7 @@
         <v>403</v>
       </c>
       <c r="T733" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U733" s="1" t="s">
         <v>404</v>
@@ -50637,10 +50700,10 @@
     </row>
     <row r="734" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A734" s="4" t="s">
-        <v>1607</v>
+        <v>1773</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>1608</v>
+        <v>1544</v>
       </c>
       <c r="C734" s="1">
         <v>25</v>
@@ -50692,7 +50755,7 @@
         <v>403</v>
       </c>
       <c r="T734" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U734" s="1" t="s">
         <v>404</v>
@@ -50700,10 +50763,10 @@
     </row>
     <row r="735" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A735" s="4" t="s">
-        <v>1609</v>
+        <v>1774</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>1610</v>
+        <v>1545</v>
       </c>
       <c r="C735" s="1">
         <v>25</v>
@@ -50755,7 +50818,7 @@
         <v>403</v>
       </c>
       <c r="T735" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U735" s="1" t="s">
         <v>404</v>
@@ -50763,10 +50826,10 @@
     </row>
     <row r="736" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A736" s="4" t="s">
-        <v>1611</v>
+        <v>1775</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>1612</v>
+        <v>1546</v>
       </c>
       <c r="C736" s="1">
         <v>25</v>
@@ -50818,7 +50881,7 @@
         <v>403</v>
       </c>
       <c r="T736" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U736" s="1" t="s">
         <v>404</v>
@@ -50826,10 +50889,10 @@
     </row>
     <row r="737" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A737" s="4" t="s">
-        <v>1613</v>
+        <v>1776</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>1614</v>
+        <v>1547</v>
       </c>
       <c r="C737" s="1">
         <v>25</v>
@@ -50881,7 +50944,7 @@
         <v>403</v>
       </c>
       <c r="T737" s="1" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="U737" s="1" t="s">
         <v>404</v>
@@ -50889,7 +50952,7 @@
     </row>
     <row r="738" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A738" s="4" t="s">
-        <v>1615</v>
+        <v>1548</v>
       </c>
       <c r="B738" s="4">
         <v>4</v>
@@ -50948,7 +51011,7 @@
     </row>
     <row r="739" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A739" s="4" t="s">
-        <v>1616</v>
+        <v>1549</v>
       </c>
       <c r="B739" s="4">
         <v>4</v>
@@ -51007,7 +51070,7 @@
     </row>
     <row r="740" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A740" s="4" t="s">
-        <v>1617</v>
+        <v>1550</v>
       </c>
       <c r="B740" s="4">
         <v>4</v>
@@ -51066,7 +51129,7 @@
     </row>
     <row r="741" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A741" s="4" t="s">
-        <v>1618</v>
+        <v>1551</v>
       </c>
       <c r="B741" s="4">
         <v>4</v>
@@ -51125,7 +51188,7 @@
     </row>
     <row r="742" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A742" s="4" t="s">
-        <v>1619</v>
+        <v>1552</v>
       </c>
       <c r="B742" s="4">
         <v>4</v>
@@ -51184,7 +51247,7 @@
     </row>
     <row r="743" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A743" s="4" t="s">
-        <v>1620</v>
+        <v>1553</v>
       </c>
       <c r="B743" s="4">
         <v>16</v>
@@ -51243,7 +51306,7 @@
     </row>
     <row r="744" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A744" s="4" t="s">
-        <v>1621</v>
+        <v>1554</v>
       </c>
       <c r="B744" s="4">
         <v>16</v>
@@ -51302,7 +51365,7 @@
     </row>
     <row r="745" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A745" s="4" t="s">
-        <v>1622</v>
+        <v>1555</v>
       </c>
       <c r="B745" s="4">
         <v>16</v>
@@ -51361,7 +51424,7 @@
     </row>
     <row r="746" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A746" s="4" t="s">
-        <v>1623</v>
+        <v>1556</v>
       </c>
       <c r="B746" s="4">
         <v>16</v>
@@ -51420,7 +51483,7 @@
     </row>
     <row r="747" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A747" s="4" t="s">
-        <v>1624</v>
+        <v>1557</v>
       </c>
       <c r="B747" s="4">
         <v>16</v>
@@ -51479,7 +51542,7 @@
     </row>
     <row r="748" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A748" s="4" t="s">
-        <v>1625</v>
+        <v>1558</v>
       </c>
       <c r="B748" s="4">
         <v>88</v>
@@ -51538,7 +51601,7 @@
     </row>
     <row r="749" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A749" s="4" t="s">
-        <v>1626</v>
+        <v>1559</v>
       </c>
       <c r="B749" s="4">
         <v>88</v>
@@ -51597,7 +51660,7 @@
     </row>
     <row r="750" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A750" s="4" t="s">
-        <v>1627</v>
+        <v>1560</v>
       </c>
       <c r="B750" s="4">
         <v>88</v>
@@ -51656,7 +51719,7 @@
     </row>
     <row r="751" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A751" s="4" t="s">
-        <v>1628</v>
+        <v>1561</v>
       </c>
       <c r="B751" s="4">
         <v>88</v>
@@ -51715,7 +51778,7 @@
     </row>
     <row r="752" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A752" s="4" t="s">
-        <v>1629</v>
+        <v>1562</v>
       </c>
       <c r="B752" s="4">
         <v>88</v>
@@ -51774,7 +51837,7 @@
     </row>
     <row r="753" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A753" s="4" t="s">
-        <v>1630</v>
+        <v>1563</v>
       </c>
       <c r="B753" s="4">
         <v>176</v>
@@ -51833,7 +51896,7 @@
     </row>
     <row r="754" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A754" s="4" t="s">
-        <v>1631</v>
+        <v>1564</v>
       </c>
       <c r="B754" s="4">
         <v>176</v>
@@ -51892,7 +51955,7 @@
     </row>
     <row r="755" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A755" s="4" t="s">
-        <v>1632</v>
+        <v>1565</v>
       </c>
       <c r="B755" s="4">
         <v>176</v>
@@ -51951,7 +52014,7 @@
     </row>
     <row r="756" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A756" s="4" t="s">
-        <v>1633</v>
+        <v>1566</v>
       </c>
       <c r="B756" s="4">
         <v>176</v>
@@ -52010,7 +52073,7 @@
     </row>
     <row r="757" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A757" s="4" t="s">
-        <v>1634</v>
+        <v>1567</v>
       </c>
       <c r="B757" s="4">
         <v>176</v>
@@ -52069,10 +52132,10 @@
     </row>
     <row r="758" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A758" s="4" t="s">
-        <v>1635</v>
+        <v>1568</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>1636</v>
+        <v>1569</v>
       </c>
       <c r="C758" s="4">
         <v>17</v>
@@ -52128,10 +52191,10 @@
     </row>
     <row r="759" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A759" s="4" t="s">
-        <v>1637</v>
+        <v>1570</v>
       </c>
       <c r="B759" s="4" t="s">
-        <v>1638</v>
+        <v>1571</v>
       </c>
       <c r="C759" s="4">
         <v>17</v>
@@ -52187,10 +52250,10 @@
     </row>
     <row r="760" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A760" s="4" t="s">
-        <v>1639</v>
+        <v>1572</v>
       </c>
       <c r="B760" s="4" t="s">
-        <v>1640</v>
+        <v>1573</v>
       </c>
       <c r="C760" s="4">
         <v>17</v>
@@ -52246,10 +52309,10 @@
     </row>
     <row r="761" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A761" s="4" t="s">
-        <v>1641</v>
+        <v>1574</v>
       </c>
       <c r="B761" s="4" t="s">
-        <v>1642</v>
+        <v>1575</v>
       </c>
       <c r="C761" s="4">
         <v>17</v>
@@ -52305,10 +52368,10 @@
     </row>
     <row r="762" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A762" s="4" t="s">
-        <v>1643</v>
+        <v>1576</v>
       </c>
       <c r="B762" s="4" t="s">
-        <v>1644</v>
+        <v>1577</v>
       </c>
       <c r="C762" s="4">
         <v>17</v>
@@ -52364,10 +52427,10 @@
     </row>
     <row r="763" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A763" s="4" t="s">
-        <v>1645</v>
+        <v>1578</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>1646</v>
+        <v>1579</v>
       </c>
       <c r="C763" s="4">
         <v>17</v>
@@ -52423,10 +52486,10 @@
     </row>
     <row r="764" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A764" s="4" t="s">
-        <v>1647</v>
+        <v>1580</v>
       </c>
       <c r="B764" s="4" t="s">
-        <v>1648</v>
+        <v>1581</v>
       </c>
       <c r="C764" s="4">
         <v>17</v>
@@ -52482,10 +52545,10 @@
     </row>
     <row r="765" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A765" s="4" t="s">
-        <v>1649</v>
+        <v>1582</v>
       </c>
       <c r="B765" s="4" t="s">
-        <v>1650</v>
+        <v>1583</v>
       </c>
       <c r="C765" s="4">
         <v>17</v>
@@ -52541,10 +52604,10 @@
     </row>
     <row r="766" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A766" s="4" t="s">
-        <v>1651</v>
+        <v>1584</v>
       </c>
       <c r="B766" s="4" t="s">
-        <v>1652</v>
+        <v>1585</v>
       </c>
       <c r="C766" s="4">
         <v>17</v>
@@ -52600,10 +52663,10 @@
     </row>
     <row r="767" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A767" s="4" t="s">
-        <v>1653</v>
+        <v>1586</v>
       </c>
       <c r="B767" s="4" t="s">
-        <v>1654</v>
+        <v>1587</v>
       </c>
       <c r="C767" s="4">
         <v>17</v>
@@ -52659,10 +52722,10 @@
     </row>
     <row r="768" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A768" s="4" t="s">
-        <v>1655</v>
+        <v>1588</v>
       </c>
       <c r="B768" s="4" t="s">
-        <v>1656</v>
+        <v>1589</v>
       </c>
       <c r="C768" s="4">
         <v>17</v>
@@ -52718,10 +52781,10 @@
     </row>
     <row r="769" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A769" s="4" t="s">
-        <v>1657</v>
+        <v>1590</v>
       </c>
       <c r="B769" s="4" t="s">
-        <v>1658</v>
+        <v>1591</v>
       </c>
       <c r="C769" s="4">
         <v>21</v>
@@ -52777,10 +52840,10 @@
     </row>
     <row r="770" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A770" s="4" t="s">
-        <v>1659</v>
+        <v>1592</v>
       </c>
       <c r="B770" s="4" t="s">
-        <v>1660</v>
+        <v>1593</v>
       </c>
       <c r="C770" s="4">
         <v>21</v>
@@ -52839,7 +52902,7 @@
         <v>422</v>
       </c>
       <c r="B771" s="4" t="s">
-        <v>1661</v>
+        <v>1594</v>
       </c>
       <c r="C771" s="4">
         <v>21</v>
@@ -52895,10 +52958,10 @@
     </row>
     <row r="772" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A772" s="4" t="s">
-        <v>1662</v>
+        <v>1595</v>
       </c>
       <c r="B772" s="4" t="s">
-        <v>1663</v>
+        <v>1596</v>
       </c>
       <c r="C772" s="4">
         <v>21</v>
@@ -52954,10 +53017,10 @@
     </row>
     <row r="773" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A773" s="4" t="s">
-        <v>1664</v>
+        <v>1597</v>
       </c>
       <c r="B773" s="4" t="s">
-        <v>1665</v>
+        <v>1598</v>
       </c>
       <c r="C773" s="4">
         <v>21</v>
@@ -53013,10 +53076,10 @@
     </row>
     <row r="774" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A774" s="4" t="s">
-        <v>1666</v>
+        <v>1599</v>
       </c>
       <c r="B774" s="4" t="s">
-        <v>1667</v>
+        <v>1600</v>
       </c>
       <c r="C774" s="4">
         <v>21</v>
@@ -53072,10 +53135,10 @@
     </row>
     <row r="775" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A775" s="4" t="s">
-        <v>1668</v>
+        <v>1601</v>
       </c>
       <c r="B775" s="4" t="s">
-        <v>1669</v>
+        <v>1602</v>
       </c>
       <c r="C775" s="4">
         <v>21</v>
@@ -53131,10 +53194,10 @@
     </row>
     <row r="776" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A776" s="4" t="s">
-        <v>1670</v>
+        <v>1603</v>
       </c>
       <c r="B776" s="4" t="s">
-        <v>1671</v>
+        <v>1604</v>
       </c>
       <c r="C776" s="4">
         <v>21</v>
@@ -53190,10 +53253,10 @@
     </row>
     <row r="777" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A777" s="4" t="s">
-        <v>1672</v>
+        <v>1605</v>
       </c>
       <c r="B777" s="4" t="s">
-        <v>1673</v>
+        <v>1606</v>
       </c>
       <c r="C777" s="4">
         <v>21</v>
@@ -53249,10 +53312,10 @@
     </row>
     <row r="778" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A778" s="4" t="s">
-        <v>1674</v>
+        <v>1607</v>
       </c>
       <c r="B778" s="4" t="s">
-        <v>1675</v>
+        <v>1608</v>
       </c>
       <c r="C778" s="4">
         <v>21</v>
@@ -53308,10 +53371,10 @@
     </row>
     <row r="779" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A779" s="4" t="s">
-        <v>1676</v>
+        <v>1609</v>
       </c>
       <c r="B779" s="4" t="s">
-        <v>1677</v>
+        <v>1610</v>
       </c>
       <c r="C779" s="4">
         <v>25</v>
@@ -53367,7 +53430,7 @@
     </row>
     <row r="780" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A780" s="4" t="s">
-        <v>1678</v>
+        <v>1611</v>
       </c>
       <c r="B780" s="4">
         <v>55</v>
@@ -53426,10 +53489,10 @@
     </row>
     <row r="781" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A781" s="4" t="s">
-        <v>1679</v>
+        <v>1612</v>
       </c>
       <c r="B781" s="4" t="s">
-        <v>1680</v>
+        <v>1613</v>
       </c>
       <c r="C781" s="4">
         <v>25</v>
@@ -53485,10 +53548,10 @@
     </row>
     <row r="782" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A782" s="4" t="s">
-        <v>1681</v>
+        <v>1614</v>
       </c>
       <c r="B782" s="4" t="s">
-        <v>1682</v>
+        <v>1615</v>
       </c>
       <c r="C782" s="4">
         <v>25</v>
@@ -53544,10 +53607,10 @@
     </row>
     <row r="783" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A783" s="4" t="s">
-        <v>1683</v>
+        <v>1616</v>
       </c>
       <c r="B783" s="4" t="s">
-        <v>1684</v>
+        <v>1617</v>
       </c>
       <c r="C783" s="4">
         <v>25</v>
@@ -53603,10 +53666,10 @@
     </row>
     <row r="784" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A784" s="4" t="s">
-        <v>1685</v>
+        <v>1618</v>
       </c>
       <c r="B784" s="4" t="s">
-        <v>1686</v>
+        <v>1619</v>
       </c>
       <c r="C784" s="4">
         <v>25</v>
@@ -53662,10 +53725,10 @@
     </row>
     <row r="785" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A785" s="4" t="s">
-        <v>1687</v>
+        <v>1620</v>
       </c>
       <c r="B785" s="4" t="s">
-        <v>1688</v>
+        <v>1621</v>
       </c>
       <c r="C785" s="4">
         <v>25</v>
@@ -53721,10 +53784,10 @@
     </row>
     <row r="786" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A786" s="4" t="s">
-        <v>1689</v>
+        <v>1622</v>
       </c>
       <c r="B786" s="4" t="s">
-        <v>1690</v>
+        <v>1623</v>
       </c>
       <c r="C786" s="4">
         <v>25</v>
@@ -53780,10 +53843,10 @@
     </row>
     <row r="787" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A787" s="4" t="s">
-        <v>1691</v>
+        <v>1624</v>
       </c>
       <c r="B787" s="4" t="s">
-        <v>1692</v>
+        <v>1625</v>
       </c>
       <c r="C787" s="4">
         <v>25</v>
@@ -53839,10 +53902,10 @@
     </row>
     <row r="788" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A788" s="4" t="s">
-        <v>1693</v>
+        <v>1626</v>
       </c>
       <c r="B788" s="4" t="s">
-        <v>1694</v>
+        <v>1627</v>
       </c>
       <c r="C788" s="4">
         <v>25</v>
@@ -53898,10 +53961,10 @@
     </row>
     <row r="789" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A789" s="4" t="s">
-        <v>1695</v>
+        <v>1628</v>
       </c>
       <c r="B789" s="4" t="s">
-        <v>1696</v>
+        <v>1629</v>
       </c>
       <c r="C789" s="4">
         <v>30</v>
@@ -53957,10 +54020,10 @@
     </row>
     <row r="790" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A790" s="4" t="s">
-        <v>1697</v>
+        <v>1630</v>
       </c>
       <c r="B790" s="4" t="s">
-        <v>1698</v>
+        <v>1631</v>
       </c>
       <c r="C790" s="4">
         <v>30</v>
@@ -54016,10 +54079,10 @@
     </row>
     <row r="791" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A791" s="4" t="s">
-        <v>1699</v>
+        <v>1632</v>
       </c>
       <c r="B791" s="4" t="s">
-        <v>1700</v>
+        <v>1633</v>
       </c>
       <c r="C791" s="4">
         <v>30</v>
@@ -54075,10 +54138,10 @@
     </row>
     <row r="792" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A792" s="4" t="s">
-        <v>1701</v>
+        <v>1634</v>
       </c>
       <c r="B792" s="4" t="s">
-        <v>1702</v>
+        <v>1635</v>
       </c>
       <c r="C792" s="4">
         <v>30</v>
@@ -54134,10 +54197,10 @@
     </row>
     <row r="793" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A793" s="4" t="s">
-        <v>1703</v>
+        <v>1636</v>
       </c>
       <c r="B793" s="4" t="s">
-        <v>1704</v>
+        <v>1637</v>
       </c>
       <c r="C793" s="4">
         <v>30</v>
@@ -54193,10 +54256,10 @@
     </row>
     <row r="794" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A794" s="4" t="s">
-        <v>1705</v>
+        <v>1638</v>
       </c>
       <c r="B794" s="4" t="s">
-        <v>1706</v>
+        <v>1639</v>
       </c>
       <c r="C794" s="4">
         <v>30</v>
@@ -54252,10 +54315,10 @@
     </row>
     <row r="795" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A795" s="4" t="s">
-        <v>1707</v>
+        <v>1640</v>
       </c>
       <c r="B795" s="4" t="s">
-        <v>1708</v>
+        <v>1641</v>
       </c>
       <c r="C795" s="4">
         <v>30</v>
@@ -54311,10 +54374,10 @@
     </row>
     <row r="796" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A796" s="4" t="s">
-        <v>1709</v>
+        <v>1642</v>
       </c>
       <c r="B796" s="4" t="s">
-        <v>1710</v>
+        <v>1643</v>
       </c>
       <c r="C796" s="4">
         <v>30</v>
@@ -54370,10 +54433,10 @@
     </row>
     <row r="797" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A797" s="4" t="s">
-        <v>1711</v>
+        <v>1644</v>
       </c>
       <c r="B797" s="4" t="s">
-        <v>1712</v>
+        <v>1645</v>
       </c>
       <c r="C797" s="4">
         <v>30</v>
@@ -54429,10 +54492,10 @@
     </row>
     <row r="798" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A798" s="4" t="s">
-        <v>1713</v>
+        <v>1646</v>
       </c>
       <c r="B798" s="4" t="s">
-        <v>1714</v>
+        <v>1647</v>
       </c>
       <c r="C798" s="4">
         <v>30</v>
@@ -54488,10 +54551,10 @@
     </row>
     <row r="799" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A799" s="4" t="s">
-        <v>1715</v>
+        <v>1648</v>
       </c>
       <c r="B799" s="4" t="s">
-        <v>1716</v>
+        <v>1649</v>
       </c>
       <c r="C799" s="4">
         <v>35</v>
@@ -54547,10 +54610,10 @@
     </row>
     <row r="800" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A800" s="4" t="s">
-        <v>1717</v>
+        <v>1650</v>
       </c>
       <c r="B800" s="4" t="s">
-        <v>1718</v>
+        <v>1651</v>
       </c>
       <c r="C800" s="4">
         <v>35</v>
@@ -54606,10 +54669,10 @@
     </row>
     <row r="801" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A801" s="4" t="s">
-        <v>1719</v>
+        <v>1652</v>
       </c>
       <c r="B801" s="4" t="s">
-        <v>1720</v>
+        <v>1653</v>
       </c>
       <c r="C801" s="4">
         <v>35</v>
@@ -54665,10 +54728,10 @@
     </row>
     <row r="802" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A802" s="4" t="s">
-        <v>1721</v>
+        <v>1654</v>
       </c>
       <c r="B802" s="4" t="s">
-        <v>1722</v>
+        <v>1655</v>
       </c>
       <c r="C802" s="4">
         <v>35</v>
@@ -54724,10 +54787,10 @@
     </row>
     <row r="803" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A803" s="4" t="s">
-        <v>1723</v>
+        <v>1656</v>
       </c>
       <c r="B803" s="4" t="s">
-        <v>1724</v>
+        <v>1657</v>
       </c>
       <c r="C803" s="4">
         <v>35</v>
@@ -54783,10 +54846,10 @@
     </row>
     <row r="804" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A804" s="4" t="s">
-        <v>1725</v>
+        <v>1658</v>
       </c>
       <c r="B804" s="4" t="s">
-        <v>1726</v>
+        <v>1659</v>
       </c>
       <c r="C804" s="4">
         <v>35</v>
@@ -54842,10 +54905,10 @@
     </row>
     <row r="805" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A805" s="4" t="s">
-        <v>1727</v>
+        <v>1660</v>
       </c>
       <c r="B805" s="4" t="s">
-        <v>1728</v>
+        <v>1661</v>
       </c>
       <c r="C805" s="4">
         <v>35</v>
@@ -54901,10 +54964,10 @@
     </row>
     <row r="806" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A806" s="4" t="s">
-        <v>1729</v>
+        <v>1662</v>
       </c>
       <c r="B806" s="4" t="s">
-        <v>1730</v>
+        <v>1663</v>
       </c>
       <c r="C806" s="4">
         <v>35</v>
@@ -54960,10 +55023,10 @@
     </row>
     <row r="807" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A807" s="4" t="s">
-        <v>1731</v>
+        <v>1664</v>
       </c>
       <c r="B807" s="4" t="s">
-        <v>1732</v>
+        <v>1665</v>
       </c>
       <c r="C807" s="4">
         <v>35</v>
@@ -55019,10 +55082,10 @@
     </row>
     <row r="808" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A808" s="4" t="s">
-        <v>1733</v>
+        <v>1666</v>
       </c>
       <c r="B808" s="4" t="s">
-        <v>1734</v>
+        <v>1667</v>
       </c>
       <c r="C808" s="4">
         <v>35</v>

--- a/data/consumption_data.xlsx
+++ b/data/consumption_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779C0031-75DD-9643-B220-D244F8C0B485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A333AB2-5D58-C24C-B0CB-C4D2DB246DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="35820" windowHeight="20420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14560" yWindow="2460" windowWidth="21500" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10543" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10542" uniqueCount="1361">
   <si>
     <t>Sun &amp; Chen-2014-Aquaculture</t>
   </si>
@@ -4536,8 +4536,8 @@
   <dimension ref="A1:Y627"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D623" sqref="D623"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8029,11 +8029,11 @@
       <c r="B54" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="4">
+        <v>22</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>1360</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>1352</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>10</v>

--- a/data/consumption_data.xlsx
+++ b/data/consumption_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0403A23F-926F-9148-8479-E628E34BAF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B543FFE-E052-204C-92CE-35587AAF0324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="1940" windowWidth="28520" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15220" yWindow="460" windowWidth="28520" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8537" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8693" uniqueCount="187">
   <si>
     <t>original_unit</t>
   </si>
@@ -563,13 +563,40 @@
   <si>
     <t>Wang-etal-2003-JournaloftheWorldAquacultureSociety</t>
   </si>
+  <si>
+    <t>Bermudes-etal-2010-Aquaculture (found via growth search)</t>
+  </si>
+  <si>
+    <t>g (dw)/day</t>
+  </si>
+  <si>
+    <t>Barramundi</t>
+  </si>
+  <si>
+    <t>Lates calcarifer</t>
+  </si>
+  <si>
+    <t>Lates</t>
+  </si>
+  <si>
+    <t>Latidae</t>
+  </si>
+  <si>
+    <t>Demersal; catadromous</t>
+  </si>
+  <si>
+    <t>Tropical</t>
+  </si>
+  <si>
+    <t>Used dry weight content (89.5%) of food to convert from dry to wet weight of food consumed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -674,22 +701,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1030,11 +1057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y627"/>
+  <dimension ref="A1:Y639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U586" sqref="U586"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T618" sqref="T618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1085,7 @@
     <col min="18" max="18" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.83203125" style="4" customWidth="1"/>
     <col min="20" max="20" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="41.5" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10" style="4" customWidth="1"/>
     <col min="22" max="22" width="45.33203125" style="4" customWidth="1"/>
     <col min="23" max="16384" width="9.1640625" style="4"/>
   </cols>
@@ -39674,7 +39701,7 @@
       <c r="O577" s="16">
         <v>4</v>
       </c>
-      <c r="P577" s="12">
+      <c r="P577" s="16">
         <v>15000</v>
       </c>
       <c r="Q577" s="12" t="s">
@@ -39739,7 +39766,7 @@
       <c r="O578" s="16">
         <v>4</v>
       </c>
-      <c r="P578" s="12">
+      <c r="P578" s="16">
         <v>15000</v>
       </c>
       <c r="Q578" s="12" t="s">
@@ -39804,7 +39831,7 @@
       <c r="O579" s="16">
         <v>4</v>
       </c>
-      <c r="P579" s="12">
+      <c r="P579" s="16">
         <v>15000</v>
       </c>
       <c r="Q579" s="12" t="s">
@@ -39869,7 +39896,7 @@
       <c r="O580" s="16">
         <v>4</v>
       </c>
-      <c r="P580" s="12">
+      <c r="P580" s="16">
         <v>15000</v>
       </c>
       <c r="Q580" s="12" t="s">
@@ -39934,7 +39961,7 @@
       <c r="O581" s="16">
         <v>4</v>
       </c>
-      <c r="P581" s="12">
+      <c r="P581" s="16">
         <v>15000</v>
       </c>
       <c r="Q581" s="12" t="s">
@@ -39999,7 +40026,7 @@
       <c r="O582" s="16">
         <v>4</v>
       </c>
-      <c r="P582" s="12">
+      <c r="P582" s="16">
         <v>15000</v>
       </c>
       <c r="Q582" s="12" t="s">
@@ -40064,7 +40091,7 @@
       <c r="O583" s="16">
         <v>4</v>
       </c>
-      <c r="P583" s="12">
+      <c r="P583" s="16">
         <v>15000</v>
       </c>
       <c r="Q583" s="12" t="s">
@@ -40129,7 +40156,7 @@
       <c r="O584" s="16">
         <v>4</v>
       </c>
-      <c r="P584" s="12">
+      <c r="P584" s="16">
         <v>15000</v>
       </c>
       <c r="Q584" s="12" t="s">
@@ -40194,7 +40221,7 @@
       <c r="O585" s="16">
         <v>4</v>
       </c>
-      <c r="P585" s="12">
+      <c r="P585" s="16">
         <v>15000</v>
       </c>
       <c r="Q585" s="12" t="s">
@@ -40259,7 +40286,7 @@
       <c r="O586" s="16">
         <v>4</v>
       </c>
-      <c r="P586" s="12">
+      <c r="P586" s="16">
         <v>15000</v>
       </c>
       <c r="Q586" s="12" t="s">
@@ -40324,7 +40351,7 @@
       <c r="O587" s="16">
         <v>4</v>
       </c>
-      <c r="P587" s="12">
+      <c r="P587" s="16">
         <v>15000</v>
       </c>
       <c r="Q587" s="12" t="s">
@@ -40389,7 +40416,7 @@
       <c r="O588" s="16">
         <v>4</v>
       </c>
-      <c r="P588" s="12">
+      <c r="P588" s="16">
         <v>15000</v>
       </c>
       <c r="Q588" s="12" t="s">
@@ -40454,7 +40481,7 @@
       <c r="O589" s="16">
         <v>4</v>
       </c>
-      <c r="P589" s="12">
+      <c r="P589" s="16">
         <v>15000</v>
       </c>
       <c r="Q589" s="12" t="s">
@@ -40519,7 +40546,7 @@
       <c r="O590" s="16">
         <v>4</v>
       </c>
-      <c r="P590" s="12">
+      <c r="P590" s="16">
         <v>15000</v>
       </c>
       <c r="Q590" s="12" t="s">
@@ -40584,7 +40611,7 @@
       <c r="O591" s="16">
         <v>4</v>
       </c>
-      <c r="P591" s="12">
+      <c r="P591" s="16">
         <v>15000</v>
       </c>
       <c r="Q591" s="12" t="s">
@@ -40649,7 +40676,7 @@
       <c r="O592" s="16">
         <v>4</v>
       </c>
-      <c r="P592" s="12">
+      <c r="P592" s="16">
         <v>15000</v>
       </c>
       <c r="Q592" s="12" t="s">
@@ -40714,7 +40741,7 @@
       <c r="O593" s="16">
         <v>4</v>
       </c>
-      <c r="P593" s="12">
+      <c r="P593" s="16">
         <v>15000</v>
       </c>
       <c r="Q593" s="12" t="s">
@@ -40779,7 +40806,7 @@
       <c r="O594" s="16">
         <v>4</v>
       </c>
-      <c r="P594" s="12">
+      <c r="P594" s="16">
         <v>15000</v>
       </c>
       <c r="Q594" s="12" t="s">
@@ -40844,7 +40871,7 @@
       <c r="O595" s="16">
         <v>4</v>
       </c>
-      <c r="P595" s="12">
+      <c r="P595" s="16">
         <v>15000</v>
       </c>
       <c r="Q595" s="12" t="s">
@@ -40909,7 +40936,7 @@
       <c r="O596" s="16">
         <v>4</v>
       </c>
-      <c r="P596" s="12">
+      <c r="P596" s="16">
         <v>15000</v>
       </c>
       <c r="Q596" s="12" t="s">
@@ -40974,7 +41001,7 @@
       <c r="O597" s="16">
         <v>4</v>
       </c>
-      <c r="P597" s="12">
+      <c r="P597" s="16">
         <v>15000</v>
       </c>
       <c r="Q597" s="12" t="s">
@@ -41039,7 +41066,7 @@
       <c r="O598" s="16">
         <v>4</v>
       </c>
-      <c r="P598" s="12">
+      <c r="P598" s="16">
         <v>15000</v>
       </c>
       <c r="Q598" s="12" t="s">
@@ -41104,7 +41131,7 @@
       <c r="O599" s="16">
         <v>4</v>
       </c>
-      <c r="P599" s="12">
+      <c r="P599" s="16">
         <v>15000</v>
       </c>
       <c r="Q599" s="12" t="s">
@@ -41169,7 +41196,7 @@
       <c r="O600" s="16">
         <v>4</v>
       </c>
-      <c r="P600" s="12">
+      <c r="P600" s="16">
         <v>15000</v>
       </c>
       <c r="Q600" s="12" t="s">
@@ -41234,7 +41261,7 @@
       <c r="O601" s="16">
         <v>4</v>
       </c>
-      <c r="P601" s="12">
+      <c r="P601" s="16">
         <v>15000</v>
       </c>
       <c r="Q601" s="12" t="s">
@@ -41299,7 +41326,7 @@
       <c r="O602" s="16">
         <v>4</v>
       </c>
-      <c r="P602" s="12">
+      <c r="P602" s="16">
         <v>15000</v>
       </c>
       <c r="Q602" s="12" t="s">
@@ -41364,7 +41391,7 @@
       <c r="O603" s="16">
         <v>4</v>
       </c>
-      <c r="P603" s="12">
+      <c r="P603" s="16">
         <v>15000</v>
       </c>
       <c r="Q603" s="12" t="s">
@@ -41429,7 +41456,7 @@
       <c r="O604" s="16">
         <v>4</v>
       </c>
-      <c r="P604" s="12">
+      <c r="P604" s="16">
         <v>15000</v>
       </c>
       <c r="Q604" s="12" t="s">
@@ -41494,7 +41521,7 @@
       <c r="O605" s="16">
         <v>4</v>
       </c>
-      <c r="P605" s="12">
+      <c r="P605" s="16">
         <v>15000</v>
       </c>
       <c r="Q605" s="12" t="s">
@@ -41559,7 +41586,7 @@
       <c r="O606" s="16">
         <v>4</v>
       </c>
-      <c r="P606" s="12">
+      <c r="P606" s="16">
         <v>15000</v>
       </c>
       <c r="Q606" s="12" t="s">
@@ -41624,7 +41651,7 @@
       <c r="O607" s="16">
         <v>4</v>
       </c>
-      <c r="P607" s="12">
+      <c r="P607" s="16">
         <v>15000</v>
       </c>
       <c r="Q607" s="12" t="s">
@@ -41689,7 +41716,7 @@
       <c r="O608" s="16">
         <v>4</v>
       </c>
-      <c r="P608" s="12">
+      <c r="P608" s="16">
         <v>15000</v>
       </c>
       <c r="Q608" s="12" t="s">
@@ -41754,7 +41781,7 @@
       <c r="O609" s="16">
         <v>4</v>
       </c>
-      <c r="P609" s="12">
+      <c r="P609" s="16">
         <v>15000</v>
       </c>
       <c r="Q609" s="12" t="s">
@@ -41819,7 +41846,7 @@
       <c r="O610" s="16">
         <v>4</v>
       </c>
-      <c r="P610" s="12">
+      <c r="P610" s="16">
         <v>15000</v>
       </c>
       <c r="Q610" s="12" t="s">
@@ -41884,7 +41911,7 @@
       <c r="O611" s="16">
         <v>4</v>
       </c>
-      <c r="P611" s="12">
+      <c r="P611" s="16">
         <v>15000</v>
       </c>
       <c r="Q611" s="12" t="s">
@@ -41949,7 +41976,7 @@
       <c r="O612" s="16">
         <v>4</v>
       </c>
-      <c r="P612" s="12">
+      <c r="P612" s="16">
         <v>15000</v>
       </c>
       <c r="Q612" s="12" t="s">
@@ -42014,7 +42041,7 @@
       <c r="O613" s="16">
         <v>4</v>
       </c>
-      <c r="P613" s="12">
+      <c r="P613" s="16">
         <v>15000</v>
       </c>
       <c r="Q613" s="12" t="s">
@@ -42079,7 +42106,7 @@
       <c r="O614" s="16">
         <v>4</v>
       </c>
-      <c r="P614" s="12">
+      <c r="P614" s="16">
         <v>15000</v>
       </c>
       <c r="Q614" s="12" t="s">
@@ -42144,7 +42171,7 @@
       <c r="O615" s="16">
         <v>4</v>
       </c>
-      <c r="P615" s="12">
+      <c r="P615" s="16">
         <v>15000</v>
       </c>
       <c r="Q615" s="12" t="s">
@@ -42209,7 +42236,7 @@
       <c r="O616" s="16">
         <v>4</v>
       </c>
-      <c r="P616" s="12">
+      <c r="P616" s="16">
         <v>15000</v>
       </c>
       <c r="Q616" s="12" t="s">
@@ -42274,7 +42301,7 @@
       <c r="O617" s="16">
         <v>4</v>
       </c>
-      <c r="P617" s="12">
+      <c r="P617" s="16">
         <v>15000</v>
       </c>
       <c r="Q617" s="12" t="s">
@@ -42339,7 +42366,7 @@
       <c r="O618" s="16">
         <v>4</v>
       </c>
-      <c r="P618" s="12">
+      <c r="P618" s="16">
         <v>15000</v>
       </c>
       <c r="Q618" s="12" t="s">
@@ -42404,7 +42431,7 @@
       <c r="O619" s="16">
         <v>4</v>
       </c>
-      <c r="P619" s="12">
+      <c r="P619" s="16">
         <v>15000</v>
       </c>
       <c r="Q619" s="12" t="s">
@@ -42469,7 +42496,7 @@
       <c r="O620" s="16">
         <v>4</v>
       </c>
-      <c r="P620" s="12">
+      <c r="P620" s="16">
         <v>15000</v>
       </c>
       <c r="Q620" s="12" t="s">
@@ -42534,7 +42561,7 @@
       <c r="O621" s="16">
         <v>4</v>
       </c>
-      <c r="P621" s="12">
+      <c r="P621" s="16">
         <v>15000</v>
       </c>
       <c r="Q621" s="12" t="s">
@@ -42599,7 +42626,7 @@
       <c r="O622" s="16">
         <v>4</v>
       </c>
-      <c r="P622" s="12">
+      <c r="P622" s="16">
         <v>15000</v>
       </c>
       <c r="Q622" s="12" t="s">
@@ -42664,7 +42691,7 @@
       <c r="O623" s="16">
         <v>4</v>
       </c>
-      <c r="P623" s="12">
+      <c r="P623" s="16">
         <v>15000</v>
       </c>
       <c r="Q623" s="12" t="s">
@@ -42729,7 +42756,7 @@
       <c r="O624" s="16">
         <v>4</v>
       </c>
-      <c r="P624" s="12">
+      <c r="P624" s="16">
         <v>15000</v>
       </c>
       <c r="Q624" s="12" t="s">
@@ -42794,7 +42821,7 @@
       <c r="O625" s="16">
         <v>4</v>
       </c>
-      <c r="P625" s="12">
+      <c r="P625" s="16">
         <v>15000</v>
       </c>
       <c r="Q625" s="12" t="s">
@@ -42859,7 +42886,7 @@
       <c r="O626" s="16">
         <v>4</v>
       </c>
-      <c r="P626" s="12">
+      <c r="P626" s="16">
         <v>15000</v>
       </c>
       <c r="Q626" s="12" t="s">
@@ -42924,7 +42951,7 @@
       <c r="O627" s="16">
         <v>4</v>
       </c>
-      <c r="P627" s="12">
+      <c r="P627" s="16">
         <v>15000</v>
       </c>
       <c r="Q627" s="12" t="s">
@@ -42941,6 +42968,822 @@
       </c>
       <c r="V627" s="4" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="628" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A628" s="14">
+        <v>0.21229050279329609</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C628" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D628" s="4">
+        <v>21</v>
+      </c>
+      <c r="E628" s="12">
+        <v>23.3</v>
+      </c>
+      <c r="F628" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G628" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H628" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I628" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J628" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K628" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L628" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M628" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N628" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O628" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P628" s="16">
+        <v>60000</v>
+      </c>
+      <c r="Q628" s="12">
+        <v>15</v>
+      </c>
+      <c r="R628" s="12">
+        <v>28</v>
+      </c>
+      <c r="S628" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="T628" s="12">
+        <v>27.05</v>
+      </c>
+      <c r="U628" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V628" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="629" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A629" s="14">
+        <v>0.51396648044692739</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C629" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D629" s="4">
+        <v>21</v>
+      </c>
+      <c r="E629" s="12">
+        <v>26.2</v>
+      </c>
+      <c r="F629" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G629" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H629" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I629" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J629" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K629" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L629" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M629" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N629" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O629" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P629" s="16">
+        <v>60000</v>
+      </c>
+      <c r="Q629" s="12">
+        <v>15</v>
+      </c>
+      <c r="R629" s="12">
+        <v>28</v>
+      </c>
+      <c r="S629" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="T629" s="12">
+        <v>27.05</v>
+      </c>
+      <c r="U629" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V629" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="630" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A630" s="14">
+        <v>0.9050279329608939</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C630" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D630" s="4">
+        <v>21</v>
+      </c>
+      <c r="E630" s="12">
+        <v>29.1</v>
+      </c>
+      <c r="F630" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G630" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H630" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I630" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J630" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K630" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L630" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M630" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N630" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O630" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P630" s="16">
+        <v>60000</v>
+      </c>
+      <c r="Q630" s="12">
+        <v>15</v>
+      </c>
+      <c r="R630" s="12">
+        <v>28</v>
+      </c>
+      <c r="S630" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="T630" s="12">
+        <v>27.05</v>
+      </c>
+      <c r="U630" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V630" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="631" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A631" s="14">
+        <v>1.005586592178771</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C631" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D631" s="4">
+        <v>21</v>
+      </c>
+      <c r="E631" s="12">
+        <v>32</v>
+      </c>
+      <c r="F631" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G631" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H631" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I631" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J631" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K631" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L631" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M631" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N631" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O631" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P631" s="16">
+        <v>60000</v>
+      </c>
+      <c r="Q631" s="12">
+        <v>15</v>
+      </c>
+      <c r="R631" s="12">
+        <v>28</v>
+      </c>
+      <c r="S631" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="T631" s="12">
+        <v>27.05</v>
+      </c>
+      <c r="U631" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V631" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="632" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A632" s="14">
+        <v>1.0391061452513966</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C632" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D632" s="4">
+        <v>21</v>
+      </c>
+      <c r="E632" s="12">
+        <v>34.9</v>
+      </c>
+      <c r="F632" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G632" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H632" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I632" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J632" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K632" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L632" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M632" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N632" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O632" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P632" s="16">
+        <v>60000</v>
+      </c>
+      <c r="Q632" s="12">
+        <v>15</v>
+      </c>
+      <c r="R632" s="12">
+        <v>28</v>
+      </c>
+      <c r="S632" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="T632" s="12">
+        <v>27.05</v>
+      </c>
+      <c r="U632" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V632" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="633" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A633" s="14">
+        <v>0.54748603351955305</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C633" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D633" s="4">
+        <v>21</v>
+      </c>
+      <c r="E633" s="12">
+        <v>37.9</v>
+      </c>
+      <c r="F633" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G633" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H633" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I633" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J633" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K633" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L633" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M633" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N633" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O633" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P633" s="16">
+        <v>60000</v>
+      </c>
+      <c r="Q633" s="12">
+        <v>15</v>
+      </c>
+      <c r="R633" s="12">
+        <v>28</v>
+      </c>
+      <c r="S633" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="T633" s="12">
+        <v>27.05</v>
+      </c>
+      <c r="U633" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V633" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="634" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A634" s="14">
+        <v>0.51396648044692739</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C634" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D634" s="4">
+        <v>142</v>
+      </c>
+      <c r="E634" s="12">
+        <v>23.3</v>
+      </c>
+      <c r="F634" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G634" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H634" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I634" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J634" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K634" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L634" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M634" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N634" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O634" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P634" s="16">
+        <v>60000</v>
+      </c>
+      <c r="Q634" s="12">
+        <v>15</v>
+      </c>
+      <c r="R634" s="12">
+        <v>28</v>
+      </c>
+      <c r="S634" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="T634" s="12">
+        <v>27.05</v>
+      </c>
+      <c r="U634" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V634" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="635" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A635" s="14">
+        <v>1.0837988826815641</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C635" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D635" s="4">
+        <v>142</v>
+      </c>
+      <c r="E635" s="12">
+        <v>26.2</v>
+      </c>
+      <c r="F635" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G635" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H635" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I635" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J635" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K635" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L635" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M635" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N635" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O635" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P635" s="16">
+        <v>60000</v>
+      </c>
+      <c r="Q635" s="12">
+        <v>15</v>
+      </c>
+      <c r="R635" s="12">
+        <v>28</v>
+      </c>
+      <c r="S635" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="T635" s="12">
+        <v>27.05</v>
+      </c>
+      <c r="U635" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V635" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="636" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A636" s="14">
+        <v>1.5530726256983238</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C636" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D636" s="4">
+        <v>142</v>
+      </c>
+      <c r="E636" s="12">
+        <v>29.1</v>
+      </c>
+      <c r="F636" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G636" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H636" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I636" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J636" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K636" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L636" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M636" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N636" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O636" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P636" s="16">
+        <v>60000</v>
+      </c>
+      <c r="Q636" s="12">
+        <v>15</v>
+      </c>
+      <c r="R636" s="12">
+        <v>28</v>
+      </c>
+      <c r="S636" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="T636" s="12">
+        <v>27.05</v>
+      </c>
+      <c r="U636" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V636" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="637" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A637" s="14">
+        <v>2.3910614525139664</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C637" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D637" s="4">
+        <v>142</v>
+      </c>
+      <c r="E637" s="12">
+        <v>32</v>
+      </c>
+      <c r="F637" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G637" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H637" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I637" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J637" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K637" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L637" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M637" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N637" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O637" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P637" s="16">
+        <v>60000</v>
+      </c>
+      <c r="Q637" s="12">
+        <v>15</v>
+      </c>
+      <c r="R637" s="12">
+        <v>28</v>
+      </c>
+      <c r="S637" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="T637" s="12">
+        <v>27.05</v>
+      </c>
+      <c r="U637" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V637" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="638" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A638" s="14">
+        <v>2.3240223463687149</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C638" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D638" s="4">
+        <v>142</v>
+      </c>
+      <c r="E638" s="12">
+        <v>34.9</v>
+      </c>
+      <c r="F638" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G638" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H638" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I638" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J638" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K638" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L638" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M638" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N638" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O638" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P638" s="16">
+        <v>60000</v>
+      </c>
+      <c r="Q638" s="12">
+        <v>15</v>
+      </c>
+      <c r="R638" s="12">
+        <v>28</v>
+      </c>
+      <c r="S638" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="T638" s="12">
+        <v>27.05</v>
+      </c>
+      <c r="U638" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V638" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="639" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A639" s="14">
+        <v>1.1731843575418994</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C639" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D639" s="4">
+        <v>142</v>
+      </c>
+      <c r="E639" s="12">
+        <v>37.9</v>
+      </c>
+      <c r="F639" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G639" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H639" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I639" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J639" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K639" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L639" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M639" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N639" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O639" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="P639" s="16">
+        <v>60000</v>
+      </c>
+      <c r="Q639" s="12">
+        <v>15</v>
+      </c>
+      <c r="R639" s="12">
+        <v>28</v>
+      </c>
+      <c r="S639" s="12">
+        <v>21.5</v>
+      </c>
+      <c r="T639" s="12">
+        <v>27.05</v>
+      </c>
+      <c r="U639" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V639" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/consumption_data.xlsx
+++ b/data/consumption_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B543FFE-E052-204C-92CE-35587AAF0324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DE687A-EAFB-EB41-B8E3-656659B84150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="460" windowWidth="28520" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="1380" windowWidth="28520" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1059,9 +1059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T618" sqref="T618"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T400" sqref="T400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1076,8 +1076,8 @@
     <col min="9" max="9" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5" style="4" bestFit="1" customWidth="1"/>

--- a/data/consumption_data.xlsx
+++ b/data/consumption_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153F8470-E90F-1B42-808B-239B7E74A75D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E57B6AF-FB33-A34F-83E8-F26F030189F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="500" windowWidth="28520" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="780" windowWidth="28520" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -531,9 +531,6 @@
     <t>Hayward&amp;Arnold-1996-Trans.Am.Fish.Soc</t>
   </si>
   <si>
-    <t>Chipps&amp;Whal-1996-Trans.Am.Fish.Soc</t>
-  </si>
-  <si>
     <t>Wang-etal-2003-JournaloftheWorldAquacultureSociety</t>
   </si>
   <si>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>Wootton-etal-1980-J.Fish.Bio</t>
+  </si>
+  <si>
+    <t>Chipps&amp;Whal-2004-Trans.Am.Fish.Soc</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1064,8 @@
   <dimension ref="A1:Y639"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A611" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X632" sqref="X632"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W219" sqref="W219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2547,10 +2547,10 @@
         <v>5.7</v>
       </c>
       <c r="U22" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
@@ -2615,10 +2615,10 @@
         <v>5.7</v>
       </c>
       <c r="U23" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -2683,10 +2683,10 @@
         <v>5.7</v>
       </c>
       <c r="U24" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
@@ -2751,10 +2751,10 @@
         <v>5.7</v>
       </c>
       <c r="U25" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
@@ -2819,10 +2819,10 @@
         <v>5.7</v>
       </c>
       <c r="U26" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
@@ -2887,10 +2887,10 @@
         <v>5.7</v>
       </c>
       <c r="U27" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
@@ -2955,10 +2955,10 @@
         <v>5.7</v>
       </c>
       <c r="U28" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
@@ -3023,10 +3023,10 @@
         <v>5.7</v>
       </c>
       <c r="U29" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3091,10 +3091,10 @@
         <v>5.7</v>
       </c>
       <c r="U30" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
@@ -3162,10 +3162,10 @@
         <v>5.7</v>
       </c>
       <c r="U31" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
@@ -3230,10 +3230,10 @@
         <v>5.7</v>
       </c>
       <c r="U32" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
@@ -3298,10 +3298,10 @@
         <v>5.7</v>
       </c>
       <c r="U33" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V33" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
@@ -3366,10 +3366,10 @@
         <v>5.7</v>
       </c>
       <c r="U34" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V34" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
@@ -3434,10 +3434,10 @@
         <v>5.7</v>
       </c>
       <c r="U35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
@@ -3502,10 +3502,10 @@
         <v>5.7</v>
       </c>
       <c r="U36" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V36" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
@@ -3570,10 +3570,10 @@
         <v>5.7</v>
       </c>
       <c r="U37" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V37" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
@@ -3638,10 +3638,10 @@
         <v>5.7</v>
       </c>
       <c r="U38" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V38" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
@@ -3706,10 +3706,10 @@
         <v>5.7</v>
       </c>
       <c r="U39" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V39" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
@@ -3774,10 +3774,10 @@
         <v>5.7</v>
       </c>
       <c r="U40" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V40" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
@@ -3842,10 +3842,10 @@
         <v>5.7</v>
       </c>
       <c r="U41" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V41" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
@@ -3910,10 +3910,10 @@
         <v>5.7</v>
       </c>
       <c r="U42" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V42" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
@@ -3978,10 +3978,10 @@
         <v>5.7</v>
       </c>
       <c r="U43" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V43" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
@@ -4046,10 +4046,10 @@
         <v>5.7</v>
       </c>
       <c r="U44" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V44" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
@@ -4114,10 +4114,10 @@
         <v>5.7</v>
       </c>
       <c r="U45" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V45" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
@@ -4182,10 +4182,10 @@
         <v>5.7</v>
       </c>
       <c r="U46" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V46" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
@@ -4250,10 +4250,10 @@
         <v>5.7</v>
       </c>
       <c r="U47" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V47" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
@@ -4318,10 +4318,10 @@
         <v>5.7</v>
       </c>
       <c r="U48" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V48" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
@@ -4386,10 +4386,10 @@
         <v>5.7</v>
       </c>
       <c r="U49" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
@@ -4454,10 +4454,10 @@
         <v>5.7</v>
       </c>
       <c r="U50" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V50" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
@@ -4522,10 +4522,10 @@
         <v>5.7</v>
       </c>
       <c r="U51" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V51" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
@@ -4590,10 +4590,10 @@
         <v>5.7</v>
       </c>
       <c r="U52" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V52" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
@@ -4658,10 +4658,10 @@
         <v>5.7</v>
       </c>
       <c r="U53" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V53" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
@@ -4726,10 +4726,10 @@
         <v>5.7</v>
       </c>
       <c r="U54" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V54" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
@@ -4794,10 +4794,10 @@
         <v>5.7</v>
       </c>
       <c r="U55" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V55" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
@@ -4862,10 +4862,10 @@
         <v>5.7</v>
       </c>
       <c r="U56" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V56" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
@@ -4930,10 +4930,10 @@
         <v>5.7</v>
       </c>
       <c r="U57" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V57" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
@@ -4998,10 +4998,10 @@
         <v>5.7</v>
       </c>
       <c r="U58" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V58" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
@@ -5066,10 +5066,10 @@
         <v>5.7</v>
       </c>
       <c r="U59" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V59" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
@@ -5134,10 +5134,10 @@
         <v>5.7</v>
       </c>
       <c r="U60" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V60" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
@@ -5202,10 +5202,10 @@
         <v>5.7</v>
       </c>
       <c r="U61" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V61" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
@@ -5270,10 +5270,10 @@
         <v>5.7</v>
       </c>
       <c r="U62" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V62" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
@@ -5338,10 +5338,10 @@
         <v>5.7</v>
       </c>
       <c r="U63" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V63" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
@@ -5406,10 +5406,10 @@
         <v>5.7</v>
       </c>
       <c r="U64" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V64" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
@@ -5474,10 +5474,10 @@
         <v>5.7</v>
       </c>
       <c r="U65" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V65" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -5542,10 +5542,10 @@
         <v>5.7</v>
       </c>
       <c r="U66" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V66" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
@@ -5610,10 +5610,10 @@
         <v>5.7</v>
       </c>
       <c r="U67" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V67" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
@@ -5678,10 +5678,10 @@
         <v>5.7</v>
       </c>
       <c r="U68" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V68" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
@@ -5746,10 +5746,10 @@
         <v>5.7</v>
       </c>
       <c r="U69" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V69" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
@@ -5814,10 +5814,10 @@
         <v>5.7</v>
       </c>
       <c r="U70" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V70" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V70" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
@@ -5882,10 +5882,10 @@
         <v>5.7</v>
       </c>
       <c r="U71" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V71" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V71" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
@@ -5950,10 +5950,10 @@
         <v>5.7</v>
       </c>
       <c r="U72" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V72" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
@@ -6018,10 +6018,10 @@
         <v>5.7</v>
       </c>
       <c r="U73" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V73" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
@@ -6086,10 +6086,10 @@
         <v>5.7</v>
       </c>
       <c r="U74" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V74" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
@@ -6154,10 +6154,10 @@
         <v>5.7</v>
       </c>
       <c r="U75" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V75" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
@@ -6222,10 +6222,10 @@
         <v>5.7</v>
       </c>
       <c r="U76" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V76" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
@@ -6290,10 +6290,10 @@
         <v>5.7</v>
       </c>
       <c r="U77" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V77" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="V77" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
@@ -13433,7 +13433,7 @@
         <v>128</v>
       </c>
       <c r="V182" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.2">
@@ -13501,7 +13501,7 @@
         <v>128</v>
       </c>
       <c r="V183" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.2">
@@ -13569,7 +13569,7 @@
         <v>128</v>
       </c>
       <c r="V184" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.2">
@@ -13637,7 +13637,7 @@
         <v>128</v>
       </c>
       <c r="V185" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.2">
@@ -13705,7 +13705,7 @@
         <v>128</v>
       </c>
       <c r="V186" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.2">
@@ -13773,7 +13773,7 @@
         <v>128</v>
       </c>
       <c r="V187" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.2">
@@ -13841,7 +13841,7 @@
         <v>128</v>
       </c>
       <c r="V188" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.2">
@@ -13909,7 +13909,7 @@
         <v>128</v>
       </c>
       <c r="V189" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.2">
@@ -13977,7 +13977,7 @@
         <v>128</v>
       </c>
       <c r="V190" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.2">
@@ -14045,7 +14045,7 @@
         <v>128</v>
       </c>
       <c r="V191" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.2">
@@ -14113,7 +14113,7 @@
         <v>128</v>
       </c>
       <c r="V192" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.2">
@@ -14181,7 +14181,7 @@
         <v>128</v>
       </c>
       <c r="V193" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.2">
@@ -14249,7 +14249,7 @@
         <v>128</v>
       </c>
       <c r="V194" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.2">
@@ -14317,7 +14317,7 @@
         <v>128</v>
       </c>
       <c r="V195" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.2">
@@ -14385,7 +14385,7 @@
         <v>128</v>
       </c>
       <c r="V196" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.2">
@@ -14453,7 +14453,7 @@
         <v>128</v>
       </c>
       <c r="V197" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.2">
@@ -14521,7 +14521,7 @@
         <v>128</v>
       </c>
       <c r="V198" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.2">
@@ -14589,7 +14589,7 @@
         <v>128</v>
       </c>
       <c r="V199" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.2">
@@ -14657,7 +14657,7 @@
         <v>128</v>
       </c>
       <c r="V200" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.2">
@@ -14725,7 +14725,7 @@
         <v>128</v>
       </c>
       <c r="V201" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.2">
@@ -14793,7 +14793,7 @@
         <v>128</v>
       </c>
       <c r="V202" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.2">
@@ -14861,7 +14861,7 @@
         <v>128</v>
       </c>
       <c r="V203" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.2">
@@ -14929,7 +14929,7 @@
         <v>128</v>
       </c>
       <c r="V204" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.2">
@@ -14997,7 +14997,7 @@
         <v>128</v>
       </c>
       <c r="V205" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.2">
@@ -15065,7 +15065,7 @@
         <v>128</v>
       </c>
       <c r="V206" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.2">
@@ -15133,7 +15133,7 @@
         <v>128</v>
       </c>
       <c r="V207" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.2">
@@ -15201,7 +15201,7 @@
         <v>128</v>
       </c>
       <c r="V208" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.2">
@@ -15269,7 +15269,7 @@
         <v>128</v>
       </c>
       <c r="V209" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.2">
@@ -15337,7 +15337,7 @@
         <v>128</v>
       </c>
       <c r="V210" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.2">
@@ -15405,7 +15405,7 @@
         <v>128</v>
       </c>
       <c r="V211" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.2">
@@ -15473,7 +15473,7 @@
         <v>128</v>
       </c>
       <c r="V212" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.2">
@@ -15541,7 +15541,7 @@
         <v>128</v>
       </c>
       <c r="V213" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.2">
@@ -15609,7 +15609,7 @@
         <v>128</v>
       </c>
       <c r="V214" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.2">
@@ -15677,7 +15677,7 @@
         <v>128</v>
       </c>
       <c r="V215" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.2">
@@ -15745,7 +15745,7 @@
         <v>128</v>
       </c>
       <c r="V216" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="217" spans="1:22" x14ac:dyDescent="0.2">
@@ -15813,7 +15813,7 @@
         <v>128</v>
       </c>
       <c r="V217" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="218" spans="1:22" x14ac:dyDescent="0.2">
@@ -15881,7 +15881,7 @@
         <v>128</v>
       </c>
       <c r="V218" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="219" spans="1:22" x14ac:dyDescent="0.2">
@@ -15949,7 +15949,7 @@
         <v>128</v>
       </c>
       <c r="V219" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="220" spans="1:22" x14ac:dyDescent="0.2">
@@ -16017,7 +16017,7 @@
         <v>128</v>
       </c>
       <c r="V220" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.2">
@@ -16085,7 +16085,7 @@
         <v>128</v>
       </c>
       <c r="V221" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.2">
@@ -16153,7 +16153,7 @@
         <v>128</v>
       </c>
       <c r="V222" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.2">
@@ -16221,7 +16221,7 @@
         <v>128</v>
       </c>
       <c r="V223" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.2">
@@ -16289,7 +16289,7 @@
         <v>128</v>
       </c>
       <c r="V224" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.2">
@@ -16357,7 +16357,7 @@
         <v>128</v>
       </c>
       <c r="V225" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.2">
@@ -16425,7 +16425,7 @@
         <v>128</v>
       </c>
       <c r="V226" s="17" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.2">
@@ -18326,10 +18326,10 @@
         <v>96</v>
       </c>
       <c r="U254" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V254" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.2">
@@ -18394,10 +18394,10 @@
         <v>96</v>
       </c>
       <c r="U255" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V255" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="256" spans="1:22" x14ac:dyDescent="0.2">
@@ -18462,10 +18462,10 @@
         <v>96</v>
       </c>
       <c r="U256" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V256" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="257" spans="1:22" x14ac:dyDescent="0.2">
@@ -18530,10 +18530,10 @@
         <v>96</v>
       </c>
       <c r="U257" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V257" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.2">
@@ -18598,10 +18598,10 @@
         <v>96</v>
       </c>
       <c r="U258" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V258" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.2">
@@ -18666,10 +18666,10 @@
         <v>96</v>
       </c>
       <c r="U259" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V259" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.2">
@@ -18734,10 +18734,10 @@
         <v>96</v>
       </c>
       <c r="U260" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V260" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.2">
@@ -18802,10 +18802,10 @@
         <v>96</v>
       </c>
       <c r="U261" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V261" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.2">
@@ -18870,10 +18870,10 @@
         <v>96</v>
       </c>
       <c r="U262" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V262" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.2">
@@ -18938,10 +18938,10 @@
         <v>96</v>
       </c>
       <c r="U263" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V263" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.2">
@@ -19006,10 +19006,10 @@
         <v>96</v>
       </c>
       <c r="U264" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V264" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.2">
@@ -19074,10 +19074,10 @@
         <v>96</v>
       </c>
       <c r="U265" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V265" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="266" spans="1:22" x14ac:dyDescent="0.2">
@@ -19142,10 +19142,10 @@
         <v>96</v>
       </c>
       <c r="U266" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V266" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.2">
@@ -19210,10 +19210,10 @@
         <v>96</v>
       </c>
       <c r="U267" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V267" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.2">
@@ -19278,10 +19278,10 @@
         <v>96</v>
       </c>
       <c r="U268" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V268" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.2">
@@ -19346,10 +19346,10 @@
         <v>96</v>
       </c>
       <c r="U269" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V269" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.2">
@@ -19417,7 +19417,7 @@
         <v>157</v>
       </c>
       <c r="V270" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.2">
@@ -19485,7 +19485,7 @@
         <v>157</v>
       </c>
       <c r="V271" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.2">
@@ -19553,7 +19553,7 @@
         <v>157</v>
       </c>
       <c r="V272" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.2">
@@ -19621,7 +19621,7 @@
         <v>157</v>
       </c>
       <c r="V273" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.2">
@@ -19689,7 +19689,7 @@
         <v>157</v>
       </c>
       <c r="V274" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.2">
@@ -19757,7 +19757,7 @@
         <v>157</v>
       </c>
       <c r="V275" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.2">
@@ -19825,7 +19825,7 @@
         <v>157</v>
       </c>
       <c r="V276" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.2">
@@ -19893,7 +19893,7 @@
         <v>157</v>
       </c>
       <c r="V277" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.2">
@@ -19961,7 +19961,7 @@
         <v>157</v>
       </c>
       <c r="V278" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.2">
@@ -20029,7 +20029,7 @@
         <v>157</v>
       </c>
       <c r="V279" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.2">
@@ -20097,7 +20097,7 @@
         <v>157</v>
       </c>
       <c r="V280" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.2">
@@ -20165,7 +20165,7 @@
         <v>157</v>
       </c>
       <c r="V281" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.2">
@@ -20233,7 +20233,7 @@
         <v>157</v>
       </c>
       <c r="V282" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.2">
@@ -20301,7 +20301,7 @@
         <v>157</v>
       </c>
       <c r="V283" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.2">
@@ -20369,7 +20369,7 @@
         <v>157</v>
       </c>
       <c r="V284" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.2">
@@ -20437,7 +20437,7 @@
         <v>157</v>
       </c>
       <c r="V285" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.2">
@@ -20505,7 +20505,7 @@
         <v>157</v>
       </c>
       <c r="V286" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.2">
@@ -20573,7 +20573,7 @@
         <v>157</v>
       </c>
       <c r="V287" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.2">
@@ -20641,7 +20641,7 @@
         <v>157</v>
       </c>
       <c r="V288" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.2">
@@ -20709,7 +20709,7 @@
         <v>157</v>
       </c>
       <c r="V289" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.2">
@@ -20777,7 +20777,7 @@
         <v>157</v>
       </c>
       <c r="V290" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.2">
@@ -20845,7 +20845,7 @@
         <v>157</v>
       </c>
       <c r="V291" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.2">
@@ -20913,7 +20913,7 @@
         <v>157</v>
       </c>
       <c r="V292" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.2">
@@ -20981,7 +20981,7 @@
         <v>157</v>
       </c>
       <c r="V293" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="294" spans="1:22" x14ac:dyDescent="0.2">
@@ -21049,7 +21049,7 @@
         <v>157</v>
       </c>
       <c r="V294" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="295" spans="1:22" x14ac:dyDescent="0.2">
@@ -21117,7 +21117,7 @@
         <v>157</v>
       </c>
       <c r="V295" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.2">
@@ -21185,7 +21185,7 @@
         <v>157</v>
       </c>
       <c r="V296" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="297" spans="1:22" x14ac:dyDescent="0.2">
@@ -21253,7 +21253,7 @@
         <v>157</v>
       </c>
       <c r="V297" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="298" spans="1:22" x14ac:dyDescent="0.2">
@@ -21321,7 +21321,7 @@
         <v>157</v>
       </c>
       <c r="V298" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="299" spans="1:22" x14ac:dyDescent="0.2">
@@ -21389,7 +21389,7 @@
         <v>157</v>
       </c>
       <c r="V299" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="300" spans="1:22" x14ac:dyDescent="0.2">
@@ -29377,7 +29377,7 @@
         <v>128</v>
       </c>
       <c r="V420" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="421" spans="1:22" x14ac:dyDescent="0.2">
@@ -29445,7 +29445,7 @@
         <v>128</v>
       </c>
       <c r="V421" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="422" spans="1:22" x14ac:dyDescent="0.2">
@@ -29513,7 +29513,7 @@
         <v>128</v>
       </c>
       <c r="V422" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="423" spans="1:22" x14ac:dyDescent="0.2">
@@ -29581,7 +29581,7 @@
         <v>128</v>
       </c>
       <c r="V423" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="424" spans="1:22" x14ac:dyDescent="0.2">
@@ -29649,7 +29649,7 @@
         <v>128</v>
       </c>
       <c r="V424" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="425" spans="1:22" x14ac:dyDescent="0.2">
@@ -29717,7 +29717,7 @@
         <v>128</v>
       </c>
       <c r="V425" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="426" spans="1:22" x14ac:dyDescent="0.2">
@@ -29785,7 +29785,7 @@
         <v>128</v>
       </c>
       <c r="V426" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="427" spans="1:22" x14ac:dyDescent="0.2">
@@ -29853,7 +29853,7 @@
         <v>128</v>
       </c>
       <c r="V427" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="428" spans="1:22" x14ac:dyDescent="0.2">
@@ -29921,7 +29921,7 @@
         <v>128</v>
       </c>
       <c r="V428" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="429" spans="1:22" x14ac:dyDescent="0.2">
@@ -29989,7 +29989,7 @@
         <v>128</v>
       </c>
       <c r="V429" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="430" spans="1:22" x14ac:dyDescent="0.2">
@@ -30057,7 +30057,7 @@
         <v>128</v>
       </c>
       <c r="V430" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="431" spans="1:22" x14ac:dyDescent="0.2">
@@ -30125,7 +30125,7 @@
         <v>128</v>
       </c>
       <c r="V431" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="432" spans="1:22" x14ac:dyDescent="0.2">
@@ -30193,7 +30193,7 @@
         <v>128</v>
       </c>
       <c r="V432" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="433" spans="1:22" x14ac:dyDescent="0.2">
@@ -30261,7 +30261,7 @@
         <v>128</v>
       </c>
       <c r="V433" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="434" spans="1:22" x14ac:dyDescent="0.2">
@@ -30329,7 +30329,7 @@
         <v>128</v>
       </c>
       <c r="V434" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="435" spans="1:22" x14ac:dyDescent="0.2">
@@ -30397,7 +30397,7 @@
         <v>128</v>
       </c>
       <c r="V435" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="436" spans="1:22" x14ac:dyDescent="0.2">
@@ -30465,7 +30465,7 @@
         <v>128</v>
       </c>
       <c r="V436" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="437" spans="1:22" x14ac:dyDescent="0.2">
@@ -30533,7 +30533,7 @@
         <v>128</v>
       </c>
       <c r="V437" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="438" spans="1:22" x14ac:dyDescent="0.2">
@@ -30601,7 +30601,7 @@
         <v>128</v>
       </c>
       <c r="V438" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="439" spans="1:22" x14ac:dyDescent="0.2">
@@ -30669,7 +30669,7 @@
         <v>128</v>
       </c>
       <c r="V439" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="440" spans="1:22" x14ac:dyDescent="0.2">
@@ -30737,7 +30737,7 @@
         <v>128</v>
       </c>
       <c r="V440" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="441" spans="1:22" x14ac:dyDescent="0.2">
@@ -30805,7 +30805,7 @@
         <v>128</v>
       </c>
       <c r="V441" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="442" spans="1:22" x14ac:dyDescent="0.2">
@@ -30873,7 +30873,7 @@
         <v>128</v>
       </c>
       <c r="V442" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="443" spans="1:22" x14ac:dyDescent="0.2">
@@ -30941,7 +30941,7 @@
         <v>128</v>
       </c>
       <c r="V443" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="444" spans="1:22" x14ac:dyDescent="0.2">
@@ -31009,7 +31009,7 @@
         <v>128</v>
       </c>
       <c r="V444" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="445" spans="1:22" x14ac:dyDescent="0.2">
@@ -31077,7 +31077,7 @@
         <v>128</v>
       </c>
       <c r="V445" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="446" spans="1:22" x14ac:dyDescent="0.2">
@@ -31145,7 +31145,7 @@
         <v>128</v>
       </c>
       <c r="V446" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="447" spans="1:22" x14ac:dyDescent="0.2">
@@ -31213,7 +31213,7 @@
         <v>128</v>
       </c>
       <c r="V447" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="448" spans="1:22" x14ac:dyDescent="0.2">
@@ -31281,7 +31281,7 @@
         <v>128</v>
       </c>
       <c r="V448" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="449" spans="1:22" x14ac:dyDescent="0.2">
@@ -31349,7 +31349,7 @@
         <v>128</v>
       </c>
       <c r="V449" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="450" spans="1:22" x14ac:dyDescent="0.2">
@@ -31417,7 +31417,7 @@
         <v>128</v>
       </c>
       <c r="V450" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="451" spans="1:22" x14ac:dyDescent="0.2">
@@ -31485,7 +31485,7 @@
         <v>128</v>
       </c>
       <c r="V451" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="452" spans="1:22" x14ac:dyDescent="0.2">
@@ -31553,7 +31553,7 @@
         <v>128</v>
       </c>
       <c r="V452" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="453" spans="1:22" x14ac:dyDescent="0.2">
@@ -31621,7 +31621,7 @@
         <v>128</v>
       </c>
       <c r="V453" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="454" spans="1:22" x14ac:dyDescent="0.2">
@@ -31689,7 +31689,7 @@
         <v>128</v>
       </c>
       <c r="V454" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="455" spans="1:22" x14ac:dyDescent="0.2">
@@ -31757,7 +31757,7 @@
         <v>128</v>
       </c>
       <c r="V455" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="456" spans="1:22" x14ac:dyDescent="0.2">
@@ -31825,7 +31825,7 @@
         <v>128</v>
       </c>
       <c r="V456" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="457" spans="1:22" x14ac:dyDescent="0.2">
@@ -31893,7 +31893,7 @@
         <v>128</v>
       </c>
       <c r="V457" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="458" spans="1:22" x14ac:dyDescent="0.2">
@@ -31961,7 +31961,7 @@
         <v>128</v>
       </c>
       <c r="V458" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="459" spans="1:22" x14ac:dyDescent="0.2">
@@ -32029,7 +32029,7 @@
         <v>128</v>
       </c>
       <c r="V459" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="460" spans="1:22" x14ac:dyDescent="0.2">
@@ -32097,7 +32097,7 @@
         <v>128</v>
       </c>
       <c r="V460" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="461" spans="1:22" x14ac:dyDescent="0.2">
@@ -32165,7 +32165,7 @@
         <v>128</v>
       </c>
       <c r="V461" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="462" spans="1:22" x14ac:dyDescent="0.2">
@@ -32233,7 +32233,7 @@
         <v>128</v>
       </c>
       <c r="V462" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="463" spans="1:22" x14ac:dyDescent="0.2">
@@ -32301,7 +32301,7 @@
         <v>128</v>
       </c>
       <c r="V463" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="464" spans="1:22" x14ac:dyDescent="0.2">
@@ -32369,7 +32369,7 @@
         <v>128</v>
       </c>
       <c r="V464" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="465" spans="1:22" x14ac:dyDescent="0.2">
@@ -32437,7 +32437,7 @@
         <v>128</v>
       </c>
       <c r="V465" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="466" spans="1:22" x14ac:dyDescent="0.2">
@@ -32505,7 +32505,7 @@
         <v>128</v>
       </c>
       <c r="V466" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="467" spans="1:22" x14ac:dyDescent="0.2">
@@ -32573,7 +32573,7 @@
         <v>128</v>
       </c>
       <c r="V467" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="468" spans="1:22" x14ac:dyDescent="0.2">
@@ -32641,7 +32641,7 @@
         <v>128</v>
       </c>
       <c r="V468" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="469" spans="1:22" x14ac:dyDescent="0.2">
@@ -32709,7 +32709,7 @@
         <v>128</v>
       </c>
       <c r="V469" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="470" spans="1:22" x14ac:dyDescent="0.2">
@@ -32777,7 +32777,7 @@
         <v>128</v>
       </c>
       <c r="V470" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="471" spans="1:22" x14ac:dyDescent="0.2">
@@ -32845,7 +32845,7 @@
         <v>128</v>
       </c>
       <c r="V471" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="472" spans="1:22" x14ac:dyDescent="0.2">
@@ -32913,7 +32913,7 @@
         <v>128</v>
       </c>
       <c r="V472" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="473" spans="1:22" x14ac:dyDescent="0.2">
@@ -32981,7 +32981,7 @@
         <v>128</v>
       </c>
       <c r="V473" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="474" spans="1:22" x14ac:dyDescent="0.2">
@@ -33049,7 +33049,7 @@
         <v>128</v>
       </c>
       <c r="V474" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="475" spans="1:22" x14ac:dyDescent="0.2">
@@ -33117,7 +33117,7 @@
         <v>128</v>
       </c>
       <c r="V475" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="476" spans="1:22" x14ac:dyDescent="0.2">
@@ -33185,7 +33185,7 @@
         <v>128</v>
       </c>
       <c r="V476" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="477" spans="1:22" x14ac:dyDescent="0.2">
@@ -33253,7 +33253,7 @@
         <v>128</v>
       </c>
       <c r="V477" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="478" spans="1:22" x14ac:dyDescent="0.2">
@@ -33321,7 +33321,7 @@
         <v>128</v>
       </c>
       <c r="V478" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="479" spans="1:22" x14ac:dyDescent="0.2">
@@ -33389,7 +33389,7 @@
         <v>128</v>
       </c>
       <c r="V479" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="480" spans="1:22" x14ac:dyDescent="0.2">
@@ -33457,7 +33457,7 @@
         <v>128</v>
       </c>
       <c r="V480" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="481" spans="1:22" x14ac:dyDescent="0.2">
@@ -33525,7 +33525,7 @@
         <v>128</v>
       </c>
       <c r="V481" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="482" spans="1:22" x14ac:dyDescent="0.2">
@@ -33593,7 +33593,7 @@
         <v>128</v>
       </c>
       <c r="V482" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="483" spans="1:22" x14ac:dyDescent="0.2">
@@ -33661,7 +33661,7 @@
         <v>128</v>
       </c>
       <c r="V483" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="484" spans="1:22" x14ac:dyDescent="0.2">
@@ -33729,7 +33729,7 @@
         <v>128</v>
       </c>
       <c r="V484" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="485" spans="1:22" x14ac:dyDescent="0.2">
@@ -33797,7 +33797,7 @@
         <v>128</v>
       </c>
       <c r="V485" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="486" spans="1:22" x14ac:dyDescent="0.2">
@@ -33865,7 +33865,7 @@
         <v>128</v>
       </c>
       <c r="V486" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="487" spans="1:22" x14ac:dyDescent="0.2">
@@ -33933,7 +33933,7 @@
         <v>128</v>
       </c>
       <c r="V487" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="488" spans="1:22" x14ac:dyDescent="0.2">
@@ -34001,7 +34001,7 @@
         <v>128</v>
       </c>
       <c r="V488" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="489" spans="1:22" x14ac:dyDescent="0.2">
@@ -34069,7 +34069,7 @@
         <v>128</v>
       </c>
       <c r="V489" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="490" spans="1:22" x14ac:dyDescent="0.2">
@@ -34134,10 +34134,10 @@
         <v>11.2</v>
       </c>
       <c r="U490" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V490" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="491" spans="1:22" x14ac:dyDescent="0.2">
@@ -34202,10 +34202,10 @@
         <v>11.2</v>
       </c>
       <c r="U491" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V491" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="492" spans="1:22" x14ac:dyDescent="0.2">
@@ -34270,10 +34270,10 @@
         <v>11.2</v>
       </c>
       <c r="U492" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V492" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="493" spans="1:22" x14ac:dyDescent="0.2">
@@ -34338,10 +34338,10 @@
         <v>11.2</v>
       </c>
       <c r="U493" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V493" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="494" spans="1:22" x14ac:dyDescent="0.2">
@@ -34406,10 +34406,10 @@
         <v>11.2</v>
       </c>
       <c r="U494" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V494" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="495" spans="1:22" x14ac:dyDescent="0.2">
@@ -34474,10 +34474,10 @@
         <v>11.2</v>
       </c>
       <c r="U495" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V495" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="496" spans="1:22" x14ac:dyDescent="0.2">
@@ -34542,10 +34542,10 @@
         <v>11.2</v>
       </c>
       <c r="U496" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V496" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="497" spans="1:22" x14ac:dyDescent="0.2">
@@ -34610,10 +34610,10 @@
         <v>11.2</v>
       </c>
       <c r="U497" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V497" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="498" spans="1:22" x14ac:dyDescent="0.2">
@@ -34678,10 +34678,10 @@
         <v>11.2</v>
       </c>
       <c r="U498" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V498" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="499" spans="1:22" x14ac:dyDescent="0.2">
@@ -34746,10 +34746,10 @@
         <v>11.2</v>
       </c>
       <c r="U499" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V499" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="500" spans="1:22" x14ac:dyDescent="0.2">
@@ -34814,10 +34814,10 @@
         <v>11.2</v>
       </c>
       <c r="U500" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V500" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="501" spans="1:22" x14ac:dyDescent="0.2">
@@ -34882,10 +34882,10 @@
         <v>11.2</v>
       </c>
       <c r="U501" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V501" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="502" spans="1:22" x14ac:dyDescent="0.2">
@@ -34950,10 +34950,10 @@
         <v>11.2</v>
       </c>
       <c r="U502" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V502" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="503" spans="1:22" x14ac:dyDescent="0.2">
@@ -35018,10 +35018,10 @@
         <v>11.2</v>
       </c>
       <c r="U503" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V503" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="504" spans="1:22" x14ac:dyDescent="0.2">
@@ -35086,10 +35086,10 @@
         <v>11.2</v>
       </c>
       <c r="U504" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V504" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="505" spans="1:22" x14ac:dyDescent="0.2">
@@ -35154,10 +35154,10 @@
         <v>11.2</v>
       </c>
       <c r="U505" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V505" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="506" spans="1:22" x14ac:dyDescent="0.2">
@@ -35222,10 +35222,10 @@
         <v>11.2</v>
       </c>
       <c r="U506" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V506" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="507" spans="1:22" x14ac:dyDescent="0.2">
@@ -35290,10 +35290,10 @@
         <v>11.2</v>
       </c>
       <c r="U507" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V507" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="508" spans="1:22" x14ac:dyDescent="0.2">
@@ -35358,10 +35358,10 @@
         <v>11.2</v>
       </c>
       <c r="U508" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V508" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="509" spans="1:22" x14ac:dyDescent="0.2">
@@ -35426,10 +35426,10 @@
         <v>11.2</v>
       </c>
       <c r="U509" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V509" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="510" spans="1:22" x14ac:dyDescent="0.2">
@@ -35494,10 +35494,10 @@
         <v>11.2</v>
       </c>
       <c r="U510" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V510" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="511" spans="1:22" x14ac:dyDescent="0.2">
@@ -35562,10 +35562,10 @@
         <v>11.2</v>
       </c>
       <c r="U511" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V511" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="512" spans="1:22" x14ac:dyDescent="0.2">
@@ -35630,10 +35630,10 @@
         <v>11.2</v>
       </c>
       <c r="U512" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V512" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="513" spans="1:22" x14ac:dyDescent="0.2">
@@ -35698,10 +35698,10 @@
         <v>11.2</v>
       </c>
       <c r="U513" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V513" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="514" spans="1:22" x14ac:dyDescent="0.2">
@@ -38604,10 +38604,10 @@
         <v>16.8</v>
       </c>
       <c r="U557" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V557" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="558" spans="1:22" x14ac:dyDescent="0.2">
@@ -38672,10 +38672,10 @@
         <v>16.8</v>
       </c>
       <c r="U558" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V558" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="559" spans="1:22" x14ac:dyDescent="0.2">
@@ -38740,10 +38740,10 @@
         <v>16.8</v>
       </c>
       <c r="U559" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V559" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="560" spans="1:22" x14ac:dyDescent="0.2">
@@ -38808,10 +38808,10 @@
         <v>16.8</v>
       </c>
       <c r="U560" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V560" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="561" spans="1:22" x14ac:dyDescent="0.2">
@@ -38876,10 +38876,10 @@
         <v>16.8</v>
       </c>
       <c r="U561" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V561" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="562" spans="1:22" x14ac:dyDescent="0.2">
@@ -38944,10 +38944,10 @@
         <v>16.8</v>
       </c>
       <c r="U562" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V562" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="563" spans="1:22" x14ac:dyDescent="0.2">
@@ -39012,10 +39012,10 @@
         <v>16.8</v>
       </c>
       <c r="U563" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V563" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="564" spans="1:22" x14ac:dyDescent="0.2">
@@ -39080,10 +39080,10 @@
         <v>16.8</v>
       </c>
       <c r="U564" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V564" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="565" spans="1:22" x14ac:dyDescent="0.2">
@@ -39148,10 +39148,10 @@
         <v>16.8</v>
       </c>
       <c r="U565" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V565" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="566" spans="1:22" x14ac:dyDescent="0.2">
@@ -39216,10 +39216,10 @@
         <v>16.8</v>
       </c>
       <c r="U566" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V566" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="567" spans="1:22" x14ac:dyDescent="0.2">
@@ -39284,10 +39284,10 @@
         <v>16.8</v>
       </c>
       <c r="U567" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V567" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="568" spans="1:22" x14ac:dyDescent="0.2">
@@ -39352,10 +39352,10 @@
         <v>16.8</v>
       </c>
       <c r="U568" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V568" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="569" spans="1:22" x14ac:dyDescent="0.2">
@@ -39420,10 +39420,10 @@
         <v>16.8</v>
       </c>
       <c r="U569" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V569" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="570" spans="1:22" x14ac:dyDescent="0.2">
@@ -39488,10 +39488,10 @@
         <v>16.8</v>
       </c>
       <c r="U570" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V570" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="571" spans="1:22" x14ac:dyDescent="0.2">
@@ -39556,10 +39556,10 @@
         <v>16.8</v>
       </c>
       <c r="U571" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V571" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="572" spans="1:22" x14ac:dyDescent="0.2">
@@ -39624,10 +39624,10 @@
         <v>16.8</v>
       </c>
       <c r="U572" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V572" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="573" spans="1:22" x14ac:dyDescent="0.2">
@@ -39692,10 +39692,10 @@
         <v>16.8</v>
       </c>
       <c r="U573" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V573" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="574" spans="1:22" x14ac:dyDescent="0.2">
@@ -39760,10 +39760,10 @@
         <v>16.8</v>
       </c>
       <c r="U574" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V574" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="575" spans="1:22" x14ac:dyDescent="0.2">
@@ -39828,10 +39828,10 @@
         <v>16.8</v>
       </c>
       <c r="U575" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V575" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="576" spans="1:22" x14ac:dyDescent="0.2">
@@ -39896,10 +39896,10 @@
         <v>16.8</v>
       </c>
       <c r="U576" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V576" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="577" spans="1:22" x14ac:dyDescent="0.2">
@@ -39964,10 +39964,10 @@
         <v>26.8</v>
       </c>
       <c r="U577" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V577" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V577" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="578" spans="1:22" x14ac:dyDescent="0.2">
@@ -40032,10 +40032,10 @@
         <v>26.8</v>
       </c>
       <c r="U578" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V578" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V578" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="579" spans="1:22" x14ac:dyDescent="0.2">
@@ -40100,10 +40100,10 @@
         <v>26.8</v>
       </c>
       <c r="U579" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V579" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V579" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="580" spans="1:22" x14ac:dyDescent="0.2">
@@ -40168,10 +40168,10 @@
         <v>26.8</v>
       </c>
       <c r="U580" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V580" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V580" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="581" spans="1:22" x14ac:dyDescent="0.2">
@@ -40236,10 +40236,10 @@
         <v>26.8</v>
       </c>
       <c r="U581" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V581" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V581" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="582" spans="1:22" x14ac:dyDescent="0.2">
@@ -40304,10 +40304,10 @@
         <v>26.8</v>
       </c>
       <c r="U582" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V582" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V582" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="583" spans="1:22" x14ac:dyDescent="0.2">
@@ -40372,10 +40372,10 @@
         <v>26.8</v>
       </c>
       <c r="U583" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V583" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V583" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="584" spans="1:22" x14ac:dyDescent="0.2">
@@ -40440,10 +40440,10 @@
         <v>26.8</v>
       </c>
       <c r="U584" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V584" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V584" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="585" spans="1:22" x14ac:dyDescent="0.2">
@@ -40508,10 +40508,10 @@
         <v>26.8</v>
       </c>
       <c r="U585" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V585" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V585" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="586" spans="1:22" x14ac:dyDescent="0.2">
@@ -40576,10 +40576,10 @@
         <v>26.8</v>
       </c>
       <c r="U586" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V586" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V586" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="587" spans="1:22" x14ac:dyDescent="0.2">
@@ -40644,10 +40644,10 @@
         <v>26.8</v>
       </c>
       <c r="U587" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V587" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V587" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="588" spans="1:22" x14ac:dyDescent="0.2">
@@ -40712,10 +40712,10 @@
         <v>26.8</v>
       </c>
       <c r="U588" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V588" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V588" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="589" spans="1:22" x14ac:dyDescent="0.2">
@@ -40780,10 +40780,10 @@
         <v>26.8</v>
       </c>
       <c r="U589" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V589" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V589" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="590" spans="1:22" x14ac:dyDescent="0.2">
@@ -40848,10 +40848,10 @@
         <v>26.8</v>
       </c>
       <c r="U590" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V590" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V590" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="591" spans="1:22" x14ac:dyDescent="0.2">
@@ -40916,10 +40916,10 @@
         <v>26.8</v>
       </c>
       <c r="U591" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V591" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V591" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="592" spans="1:22" x14ac:dyDescent="0.2">
@@ -40984,10 +40984,10 @@
         <v>26.8</v>
       </c>
       <c r="U592" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V592" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V592" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="593" spans="1:22" x14ac:dyDescent="0.2">
@@ -41052,10 +41052,10 @@
         <v>26.8</v>
       </c>
       <c r="U593" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V593" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V593" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="594" spans="1:22" x14ac:dyDescent="0.2">
@@ -41120,10 +41120,10 @@
         <v>26.8</v>
       </c>
       <c r="U594" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V594" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V594" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="595" spans="1:22" x14ac:dyDescent="0.2">
@@ -41188,10 +41188,10 @@
         <v>26.8</v>
       </c>
       <c r="U595" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V595" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V595" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="596" spans="1:22" x14ac:dyDescent="0.2">
@@ -41256,10 +41256,10 @@
         <v>26.8</v>
       </c>
       <c r="U596" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V596" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V596" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="597" spans="1:22" x14ac:dyDescent="0.2">
@@ -41324,10 +41324,10 @@
         <v>26.8</v>
       </c>
       <c r="U597" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V597" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V597" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="598" spans="1:22" x14ac:dyDescent="0.2">
@@ -41392,10 +41392,10 @@
         <v>26.8</v>
       </c>
       <c r="U598" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V598" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V598" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="599" spans="1:22" x14ac:dyDescent="0.2">
@@ -41460,10 +41460,10 @@
         <v>26.8</v>
       </c>
       <c r="U599" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V599" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V599" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="600" spans="1:22" x14ac:dyDescent="0.2">
@@ -41528,10 +41528,10 @@
         <v>26.8</v>
       </c>
       <c r="U600" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V600" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V600" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="601" spans="1:22" x14ac:dyDescent="0.2">
@@ -41596,10 +41596,10 @@
         <v>26.8</v>
       </c>
       <c r="U601" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V601" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V601" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="602" spans="1:22" x14ac:dyDescent="0.2">
@@ -41664,10 +41664,10 @@
         <v>26.8</v>
       </c>
       <c r="U602" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V602" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V602" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="603" spans="1:22" x14ac:dyDescent="0.2">
@@ -41732,10 +41732,10 @@
         <v>26.8</v>
       </c>
       <c r="U603" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V603" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V603" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="604" spans="1:22" x14ac:dyDescent="0.2">
@@ -41800,10 +41800,10 @@
         <v>26.8</v>
       </c>
       <c r="U604" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V604" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V604" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="605" spans="1:22" x14ac:dyDescent="0.2">
@@ -41868,10 +41868,10 @@
         <v>26.8</v>
       </c>
       <c r="U605" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V605" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V605" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="606" spans="1:22" x14ac:dyDescent="0.2">
@@ -41936,10 +41936,10 @@
         <v>26.8</v>
       </c>
       <c r="U606" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V606" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V606" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="607" spans="1:22" x14ac:dyDescent="0.2">
@@ -42004,10 +42004,10 @@
         <v>26.8</v>
       </c>
       <c r="U607" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V607" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V607" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="608" spans="1:22" x14ac:dyDescent="0.2">
@@ -42072,10 +42072,10 @@
         <v>26.8</v>
       </c>
       <c r="U608" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V608" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V608" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="609" spans="1:22" x14ac:dyDescent="0.2">
@@ -42140,10 +42140,10 @@
         <v>26.8</v>
       </c>
       <c r="U609" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V609" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V609" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="610" spans="1:22" x14ac:dyDescent="0.2">
@@ -42208,10 +42208,10 @@
         <v>26.8</v>
       </c>
       <c r="U610" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V610" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V610" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="611" spans="1:22" x14ac:dyDescent="0.2">
@@ -42276,10 +42276,10 @@
         <v>26.8</v>
       </c>
       <c r="U611" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V611" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V611" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="612" spans="1:22" x14ac:dyDescent="0.2">
@@ -42344,10 +42344,10 @@
         <v>26.8</v>
       </c>
       <c r="U612" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V612" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V612" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="613" spans="1:22" x14ac:dyDescent="0.2">
@@ -42412,10 +42412,10 @@
         <v>26.8</v>
       </c>
       <c r="U613" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V613" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V613" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="614" spans="1:22" x14ac:dyDescent="0.2">
@@ -42480,10 +42480,10 @@
         <v>26.8</v>
       </c>
       <c r="U614" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V614" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V614" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="615" spans="1:22" x14ac:dyDescent="0.2">
@@ -42548,10 +42548,10 @@
         <v>26.8</v>
       </c>
       <c r="U615" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V615" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V615" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="616" spans="1:22" x14ac:dyDescent="0.2">
@@ -42616,10 +42616,10 @@
         <v>26.8</v>
       </c>
       <c r="U616" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V616" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V616" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="617" spans="1:22" x14ac:dyDescent="0.2">
@@ -42684,10 +42684,10 @@
         <v>26.8</v>
       </c>
       <c r="U617" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V617" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V617" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="618" spans="1:22" x14ac:dyDescent="0.2">
@@ -42752,10 +42752,10 @@
         <v>26.8</v>
       </c>
       <c r="U618" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V618" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V618" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="619" spans="1:22" x14ac:dyDescent="0.2">
@@ -42820,10 +42820,10 @@
         <v>26.8</v>
       </c>
       <c r="U619" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V619" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V619" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="620" spans="1:22" x14ac:dyDescent="0.2">
@@ -42888,10 +42888,10 @@
         <v>26.8</v>
       </c>
       <c r="U620" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V620" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V620" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="621" spans="1:22" x14ac:dyDescent="0.2">
@@ -42956,10 +42956,10 @@
         <v>26.8</v>
       </c>
       <c r="U621" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V621" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V621" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="622" spans="1:22" x14ac:dyDescent="0.2">
@@ -43024,10 +43024,10 @@
         <v>26.8</v>
       </c>
       <c r="U622" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V622" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V622" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="623" spans="1:22" x14ac:dyDescent="0.2">
@@ -43092,10 +43092,10 @@
         <v>26.8</v>
       </c>
       <c r="U623" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V623" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V623" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="624" spans="1:22" x14ac:dyDescent="0.2">
@@ -43160,10 +43160,10 @@
         <v>26.8</v>
       </c>
       <c r="U624" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V624" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V624" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="625" spans="1:22" x14ac:dyDescent="0.2">
@@ -43228,10 +43228,10 @@
         <v>26.8</v>
       </c>
       <c r="U625" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V625" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V625" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="626" spans="1:22" x14ac:dyDescent="0.2">
@@ -43296,10 +43296,10 @@
         <v>26.8</v>
       </c>
       <c r="U626" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V626" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V626" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="627" spans="1:22" x14ac:dyDescent="0.2">
@@ -43364,10 +43364,10 @@
         <v>26.8</v>
       </c>
       <c r="U627" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="V627" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="V627" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="628" spans="1:22" x14ac:dyDescent="0.2">
@@ -43378,7 +43378,7 @@
         <v>106</v>
       </c>
       <c r="C628" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D628" s="14">
         <v>21</v>
@@ -43390,16 +43390,16 @@
         <v>110</v>
       </c>
       <c r="G628" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H628" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H628" s="14" t="s">
+      <c r="I628" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I628" s="14" t="s">
+      <c r="J628" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="J628" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="K628" s="14" t="s">
         <v>24</v>
@@ -43408,10 +43408,10 @@
         <v>58</v>
       </c>
       <c r="M628" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N628" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="N628" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="O628" s="14">
         <v>3.8</v>
@@ -43432,10 +43432,10 @@
         <v>27.05</v>
       </c>
       <c r="U628" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V628" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="629" spans="1:22" x14ac:dyDescent="0.2">
@@ -43446,7 +43446,7 @@
         <v>106</v>
       </c>
       <c r="C629" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D629" s="14">
         <v>21</v>
@@ -43458,16 +43458,16 @@
         <v>110</v>
       </c>
       <c r="G629" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H629" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H629" s="14" t="s">
+      <c r="I629" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I629" s="14" t="s">
+      <c r="J629" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="J629" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="K629" s="14" t="s">
         <v>24</v>
@@ -43476,10 +43476,10 @@
         <v>58</v>
       </c>
       <c r="M629" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N629" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="N629" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="O629" s="14">
         <v>3.8</v>
@@ -43500,10 +43500,10 @@
         <v>27.05</v>
       </c>
       <c r="U629" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V629" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="630" spans="1:22" x14ac:dyDescent="0.2">
@@ -43514,7 +43514,7 @@
         <v>106</v>
       </c>
       <c r="C630" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D630" s="14">
         <v>21</v>
@@ -43526,16 +43526,16 @@
         <v>110</v>
       </c>
       <c r="G630" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H630" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H630" s="14" t="s">
+      <c r="I630" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I630" s="14" t="s">
+      <c r="J630" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="J630" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="K630" s="14" t="s">
         <v>24</v>
@@ -43544,10 +43544,10 @@
         <v>58</v>
       </c>
       <c r="M630" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N630" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="N630" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="O630" s="14">
         <v>3.8</v>
@@ -43568,10 +43568,10 @@
         <v>27.05</v>
       </c>
       <c r="U630" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V630" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="631" spans="1:22" x14ac:dyDescent="0.2">
@@ -43582,7 +43582,7 @@
         <v>106</v>
       </c>
       <c r="C631" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D631" s="14">
         <v>21</v>
@@ -43594,16 +43594,16 @@
         <v>110</v>
       </c>
       <c r="G631" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H631" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H631" s="14" t="s">
+      <c r="I631" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I631" s="14" t="s">
+      <c r="J631" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="J631" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="K631" s="14" t="s">
         <v>24</v>
@@ -43612,10 +43612,10 @@
         <v>58</v>
       </c>
       <c r="M631" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N631" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="N631" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="O631" s="14">
         <v>3.8</v>
@@ -43636,10 +43636,10 @@
         <v>27.05</v>
       </c>
       <c r="U631" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V631" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="632" spans="1:22" x14ac:dyDescent="0.2">
@@ -43650,7 +43650,7 @@
         <v>106</v>
       </c>
       <c r="C632" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D632" s="14">
         <v>21</v>
@@ -43662,16 +43662,16 @@
         <v>110</v>
       </c>
       <c r="G632" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H632" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H632" s="14" t="s">
+      <c r="I632" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I632" s="14" t="s">
+      <c r="J632" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="J632" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="K632" s="14" t="s">
         <v>24</v>
@@ -43680,10 +43680,10 @@
         <v>58</v>
       </c>
       <c r="M632" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N632" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="N632" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="O632" s="14">
         <v>3.8</v>
@@ -43704,10 +43704,10 @@
         <v>27.05</v>
       </c>
       <c r="U632" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V632" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="633" spans="1:22" x14ac:dyDescent="0.2">
@@ -43718,7 +43718,7 @@
         <v>106</v>
       </c>
       <c r="C633" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D633" s="14">
         <v>21</v>
@@ -43730,16 +43730,16 @@
         <v>117</v>
       </c>
       <c r="G633" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H633" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H633" s="14" t="s">
+      <c r="I633" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I633" s="14" t="s">
+      <c r="J633" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="J633" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="K633" s="14" t="s">
         <v>24</v>
@@ -43748,10 +43748,10 @@
         <v>58</v>
       </c>
       <c r="M633" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N633" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="N633" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="O633" s="14">
         <v>3.8</v>
@@ -43772,10 +43772,10 @@
         <v>27.05</v>
       </c>
       <c r="U633" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V633" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="634" spans="1:22" x14ac:dyDescent="0.2">
@@ -43786,7 +43786,7 @@
         <v>106</v>
       </c>
       <c r="C634" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D634" s="14">
         <v>142</v>
@@ -43798,16 +43798,16 @@
         <v>110</v>
       </c>
       <c r="G634" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H634" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H634" s="14" t="s">
+      <c r="I634" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I634" s="14" t="s">
+      <c r="J634" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="J634" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="K634" s="14" t="s">
         <v>24</v>
@@ -43816,10 +43816,10 @@
         <v>58</v>
       </c>
       <c r="M634" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N634" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="N634" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="O634" s="14">
         <v>3.8</v>
@@ -43840,10 +43840,10 @@
         <v>27.05</v>
       </c>
       <c r="U634" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V634" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="635" spans="1:22" x14ac:dyDescent="0.2">
@@ -43854,7 +43854,7 @@
         <v>106</v>
       </c>
       <c r="C635" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D635" s="14">
         <v>142</v>
@@ -43866,16 +43866,16 @@
         <v>110</v>
       </c>
       <c r="G635" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H635" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H635" s="14" t="s">
+      <c r="I635" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I635" s="14" t="s">
+      <c r="J635" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="J635" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="K635" s="14" t="s">
         <v>24</v>
@@ -43884,10 +43884,10 @@
         <v>58</v>
       </c>
       <c r="M635" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N635" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="N635" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="O635" s="14">
         <v>3.8</v>
@@ -43908,10 +43908,10 @@
         <v>27.05</v>
       </c>
       <c r="U635" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V635" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="636" spans="1:22" x14ac:dyDescent="0.2">
@@ -43922,7 +43922,7 @@
         <v>106</v>
       </c>
       <c r="C636" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D636" s="14">
         <v>142</v>
@@ -43934,16 +43934,16 @@
         <v>110</v>
       </c>
       <c r="G636" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H636" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H636" s="14" t="s">
+      <c r="I636" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I636" s="14" t="s">
+      <c r="J636" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="J636" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="K636" s="14" t="s">
         <v>24</v>
@@ -43952,10 +43952,10 @@
         <v>58</v>
       </c>
       <c r="M636" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N636" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="N636" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="O636" s="14">
         <v>3.8</v>
@@ -43976,10 +43976,10 @@
         <v>27.05</v>
       </c>
       <c r="U636" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V636" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="637" spans="1:22" x14ac:dyDescent="0.2">
@@ -43990,7 +43990,7 @@
         <v>106</v>
       </c>
       <c r="C637" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D637" s="14">
         <v>142</v>
@@ -44002,16 +44002,16 @@
         <v>110</v>
       </c>
       <c r="G637" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H637" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H637" s="14" t="s">
+      <c r="I637" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I637" s="14" t="s">
+      <c r="J637" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="J637" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="K637" s="14" t="s">
         <v>24</v>
@@ -44020,10 +44020,10 @@
         <v>58</v>
       </c>
       <c r="M637" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N637" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="N637" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="O637" s="14">
         <v>3.8</v>
@@ -44044,10 +44044,10 @@
         <v>27.05</v>
       </c>
       <c r="U637" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V637" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="638" spans="1:22" x14ac:dyDescent="0.2">
@@ -44058,7 +44058,7 @@
         <v>106</v>
       </c>
       <c r="C638" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D638" s="14">
         <v>142</v>
@@ -44070,16 +44070,16 @@
         <v>117</v>
       </c>
       <c r="G638" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H638" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H638" s="14" t="s">
+      <c r="I638" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I638" s="14" t="s">
+      <c r="J638" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="J638" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="K638" s="14" t="s">
         <v>24</v>
@@ -44088,10 +44088,10 @@
         <v>58</v>
       </c>
       <c r="M638" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N638" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="N638" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="O638" s="14">
         <v>3.8</v>
@@ -44112,10 +44112,10 @@
         <v>27.05</v>
       </c>
       <c r="U638" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V638" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="639" spans="1:22" x14ac:dyDescent="0.2">
@@ -44126,7 +44126,7 @@
         <v>106</v>
       </c>
       <c r="C639" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D639" s="14">
         <v>142</v>
@@ -44138,16 +44138,16 @@
         <v>117</v>
       </c>
       <c r="G639" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H639" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H639" s="14" t="s">
+      <c r="I639" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I639" s="14" t="s">
+      <c r="J639" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="J639" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="K639" s="14" t="s">
         <v>24</v>
@@ -44156,10 +44156,10 @@
         <v>58</v>
       </c>
       <c r="M639" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N639" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="N639" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="O639" s="14">
         <v>3.8</v>
@@ -44180,10 +44180,10 @@
         <v>27.05</v>
       </c>
       <c r="U639" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V639" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/data/consumption_data.xlsx
+++ b/data/consumption_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C39211-EA90-A448-A8E0-6872F87048E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC43D1A-3B57-7B44-98C9-BF42ECDAD6B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38040" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1078,9 +1078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A583" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U606" sqref="U606"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/consumption_data.xlsx
+++ b/data/consumption_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6013D708-A4FD-5E45-8C93-8620556B3855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16629CE9-C6DA-DE4B-9385-B8D1489A62F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="2400" windowWidth="27560" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10840" yWindow="3020" windowWidth="27560" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10492" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10492" uniqueCount="199">
   <si>
     <t>original_unit</t>
   </si>
@@ -623,6 +623,9 @@
   <si>
     <t>above_peak_temp</t>
   </si>
+  <si>
+    <t>Zhang-etal-2017-JournalofAppliedIchtyology</t>
+  </si>
 </sst>
 </file>
 
@@ -630,8 +633,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -755,19 +758,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -776,7 +779,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1122,9 +1125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y747"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A656" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G678" sqref="G678"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35826,7 +35829,7 @@
       </c>
       <c r="U514" s="11"/>
       <c r="V514" s="4" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
     </row>
     <row r="515" spans="1:22" x14ac:dyDescent="0.2">
